--- a/java/StyleConvert/src/test/resources/test03.xlsx
+++ b/java/StyleConvert/src/test/resources/test03.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="1057">
   <si>
     <t>id</t>
   </si>
@@ -3187,6 +3187,9 @@
   </si>
   <si>
     <t>test_fillpattern</t>
+  </si>
+  <si>
+    <t>text-letter-spacing</t>
   </si>
 </sst>
 </file>
@@ -4042,13 +4045,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP449"/>
+  <dimension ref="A1:AQ449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B428" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H449" sqref="H449"/>
+      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4085,16 +4088,17 @@
     <col min="31" max="31" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="33.140625" customWidth="1"/>
-    <col min="40" max="40" width="39.85546875" customWidth="1"/>
+    <col min="34" max="34" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="33.140625" customWidth="1"/>
+    <col min="41" max="41" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4195,61 +4199,64 @@
         <v>31</v>
       </c>
       <c r="AH1" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>1012</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>1014</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>1013</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1015</v>
       </c>
@@ -4271,14 +4278,14 @@
       <c r="J6" t="s">
         <v>411</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>1018</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1016</v>
       </c>
@@ -4297,14 +4304,14 @@
       <c r="I7" t="s">
         <v>410</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>1003</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1017</v>
       </c>
@@ -4323,14 +4330,14 @@
       <c r="I8" t="s">
         <v>410</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>1003</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1020</v>
       </c>
@@ -4349,14 +4356,14 @@
       <c r="H9" t="s">
         <v>792</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
         <v>1019</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1021</v>
       </c>
@@ -4375,14 +4382,14 @@
       <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>1003</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1022</v>
       </c>
@@ -4401,14 +4408,14 @@
       <c r="I11" t="s">
         <v>49</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO11" t="s">
         <v>1003</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -4427,11 +4434,11 @@
       <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -4450,11 +4457,11 @@
       <c r="I13" t="s">
         <v>367</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>359</v>
       </c>
@@ -4473,11 +4480,11 @@
       <c r="I14" t="s">
         <v>367</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>358</v>
       </c>
@@ -4496,11 +4503,11 @@
       <c r="H15" t="s">
         <v>104</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -4519,11 +4526,11 @@
       <c r="I16" t="s">
         <v>367</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -4542,11 +4549,11 @@
       <c r="H17" t="s">
         <v>56</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>361</v>
       </c>
@@ -4565,11 +4572,11 @@
       <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -4588,11 +4595,11 @@
       <c r="I19" t="s">
         <v>364</v>
       </c>
-      <c r="AP19">
+      <c r="AQ19">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>363</v>
       </c>
@@ -4611,11 +4618,11 @@
       <c r="I20" t="s">
         <v>364</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -4634,11 +4641,11 @@
       <c r="H21" t="s">
         <v>59</v>
       </c>
-      <c r="AP21">
+      <c r="AQ21">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -4657,11 +4664,11 @@
       <c r="H22" t="s">
         <v>62</v>
       </c>
-      <c r="AP22">
+      <c r="AQ22">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -4680,11 +4687,11 @@
       <c r="H23" t="s">
         <v>65</v>
       </c>
-      <c r="AP23">
+      <c r="AQ23">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>365</v>
       </c>
@@ -4703,11 +4710,11 @@
       <c r="H24" t="s">
         <v>70</v>
       </c>
-      <c r="AP24">
+      <c r="AQ24">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -4726,11 +4733,11 @@
       <c r="I25" t="s">
         <v>67</v>
       </c>
-      <c r="AP25">
+      <c r="AQ25">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -4749,11 +4756,11 @@
       <c r="I26" t="s">
         <v>67</v>
       </c>
-      <c r="AP26">
+      <c r="AQ26">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>397</v>
       </c>
@@ -4772,11 +4779,11 @@
       <c r="I27" t="s">
         <v>67</v>
       </c>
-      <c r="AP27">
+      <c r="AQ27">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>398</v>
       </c>
@@ -4795,11 +4802,11 @@
       <c r="I28" t="s">
         <v>67</v>
       </c>
-      <c r="AP28">
+      <c r="AQ28">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>399</v>
       </c>
@@ -4818,11 +4825,11 @@
       <c r="I29" t="s">
         <v>67</v>
       </c>
-      <c r="AP29">
+      <c r="AQ29">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -4844,11 +4851,11 @@
       <c r="J30" t="s">
         <v>74</v>
       </c>
-      <c r="AP30">
+      <c r="AQ30">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -4867,11 +4874,11 @@
       <c r="I31" t="s">
         <v>74</v>
       </c>
-      <c r="AP31">
+      <c r="AQ31">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -4890,11 +4897,11 @@
       <c r="I32" t="s">
         <v>74</v>
       </c>
-      <c r="AP32">
+      <c r="AQ32">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>371</v>
       </c>
@@ -4916,11 +4923,11 @@
       <c r="J33" t="s">
         <v>80</v>
       </c>
-      <c r="AP33">
+      <c r="AQ33">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>373</v>
       </c>
@@ -4939,11 +4946,11 @@
       <c r="I34" t="s">
         <v>74</v>
       </c>
-      <c r="AP34">
+      <c r="AQ34">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>372</v>
       </c>
@@ -4962,11 +4969,11 @@
       <c r="I35" t="s">
         <v>74</v>
       </c>
-      <c r="AP35">
+      <c r="AQ35">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -4985,11 +4992,11 @@
       <c r="I36" t="s">
         <v>421</v>
       </c>
-      <c r="AP36">
+      <c r="AQ36">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -5008,11 +5015,11 @@
       <c r="I37" t="s">
         <v>421</v>
       </c>
-      <c r="AP37">
+      <c r="AQ37">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -5031,11 +5038,11 @@
       <c r="I38" t="s">
         <v>421</v>
       </c>
-      <c r="AP38">
+      <c r="AQ38">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -5057,11 +5064,11 @@
       <c r="J39" t="s">
         <v>90</v>
       </c>
-      <c r="AP39">
+      <c r="AQ39">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -5080,11 +5087,11 @@
       <c r="I40" t="s">
         <v>367</v>
       </c>
-      <c r="AP40">
+      <c r="AQ40">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -5103,11 +5110,11 @@
       <c r="I41" t="s">
         <v>367</v>
       </c>
-      <c r="AP41">
+      <c r="AQ41">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -5129,11 +5136,11 @@
       <c r="J42" t="s">
         <v>96</v>
       </c>
-      <c r="AP42">
+      <c r="AQ42">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -5155,11 +5162,11 @@
       <c r="J43" t="s">
         <v>96</v>
       </c>
-      <c r="AP43">
+      <c r="AQ43">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -5181,11 +5188,11 @@
       <c r="J44" t="s">
         <v>96</v>
       </c>
-      <c r="AP44">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ44">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>375</v>
       </c>
@@ -5204,11 +5211,11 @@
       <c r="H45" t="s">
         <v>793</v>
       </c>
-      <c r="AP45">
+      <c r="AQ45">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>376</v>
       </c>
@@ -5230,11 +5237,11 @@
       <c r="J46" t="s">
         <v>101</v>
       </c>
-      <c r="AP46">
+      <c r="AQ46">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>377</v>
       </c>
@@ -5253,11 +5260,11 @@
       <c r="I47" t="s">
         <v>123</v>
       </c>
-      <c r="AP47">
+      <c r="AQ47">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>401</v>
       </c>
@@ -5276,11 +5283,11 @@
       <c r="I48" t="s">
         <v>123</v>
       </c>
-      <c r="AP48">
+      <c r="AQ48">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>402</v>
       </c>
@@ -5299,11 +5306,11 @@
       <c r="I49" t="s">
         <v>123</v>
       </c>
-      <c r="AP49">
+      <c r="AQ49">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>368</v>
       </c>
@@ -5322,11 +5329,11 @@
       <c r="I50" t="s">
         <v>386</v>
       </c>
-      <c r="AP50">
+      <c r="AQ50">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>369</v>
       </c>
@@ -5345,11 +5352,11 @@
       <c r="I51" t="s">
         <v>386</v>
       </c>
-      <c r="AP51">
+      <c r="AQ51">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>379</v>
       </c>
@@ -5371,11 +5378,11 @@
       <c r="J52" t="s">
         <v>80</v>
       </c>
-      <c r="AP52">
+      <c r="AQ52">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>381</v>
       </c>
@@ -5394,11 +5401,11 @@
       <c r="I53" t="s">
         <v>73</v>
       </c>
-      <c r="AP53">
+      <c r="AQ53">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>380</v>
       </c>
@@ -5417,11 +5424,11 @@
       <c r="I54" t="s">
         <v>73</v>
       </c>
-      <c r="AP54">
+      <c r="AQ54">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -5440,11 +5447,11 @@
       <c r="I55" t="s">
         <v>421</v>
       </c>
-      <c r="AP55">
+      <c r="AQ55">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -5463,11 +5470,11 @@
       <c r="I56" t="s">
         <v>421</v>
       </c>
-      <c r="AP56">
+      <c r="AQ56">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -5486,11 +5493,11 @@
       <c r="I57" t="s">
         <v>421</v>
       </c>
-      <c r="AP57">
+      <c r="AQ57">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>403</v>
       </c>
@@ -5509,11 +5516,11 @@
       <c r="I58" t="s">
         <v>421</v>
       </c>
-      <c r="AP58">
+      <c r="AQ58">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>404</v>
       </c>
@@ -5532,11 +5539,11 @@
       <c r="I59" t="s">
         <v>421</v>
       </c>
-      <c r="AP59">
+      <c r="AQ59">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>405</v>
       </c>
@@ -5555,11 +5562,11 @@
       <c r="I60" t="s">
         <v>421</v>
       </c>
-      <c r="AP60">
+      <c r="AQ60">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>707</v>
       </c>
@@ -5578,11 +5585,11 @@
       <c r="H61" t="s">
         <v>713</v>
       </c>
-      <c r="AP61">
+      <c r="AQ61">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>708</v>
       </c>
@@ -5601,11 +5608,11 @@
       <c r="H62" t="s">
         <v>714</v>
       </c>
-      <c r="AP62">
+      <c r="AQ62">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>709</v>
       </c>
@@ -5624,14 +5631,14 @@
       <c r="H63" t="s">
         <v>715</v>
       </c>
-      <c r="AP63">
+      <c r="AQ63">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>384</v>
       </c>
@@ -5659,11 +5666,11 @@
       <c r="R65" t="s">
         <v>417</v>
       </c>
-      <c r="AP65">
+      <c r="AQ65">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>412</v>
       </c>
@@ -5691,11 +5698,11 @@
       <c r="R66" t="s">
         <v>417</v>
       </c>
-      <c r="AP66">
+      <c r="AQ66">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>413</v>
       </c>
@@ -5723,11 +5730,11 @@
       <c r="R67" t="s">
         <v>417</v>
       </c>
-      <c r="AP67">
+      <c r="AQ67">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>385</v>
       </c>
@@ -5761,23 +5768,23 @@
       <c r="AA68">
         <v>11</v>
       </c>
-      <c r="AH68" t="s">
+      <c r="AI68" t="s">
         <v>122</v>
       </c>
-      <c r="AI68" t="s">
+      <c r="AJ68" t="s">
         <v>123</v>
       </c>
-      <c r="AJ68" t="s">
+      <c r="AK68" t="s">
         <v>124</v>
       </c>
-      <c r="AK68" t="s">
+      <c r="AL68" t="s">
         <v>125</v>
       </c>
-      <c r="AP68">
+      <c r="AQ68">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>813</v>
       </c>
@@ -5802,26 +5809,26 @@
       <c r="AA69">
         <v>11</v>
       </c>
-      <c r="AH69" t="s">
+      <c r="AI69" t="s">
         <v>322</v>
       </c>
-      <c r="AI69" t="s">
+      <c r="AJ69" t="s">
         <v>123</v>
       </c>
-      <c r="AJ69" t="s">
+      <c r="AK69" t="s">
         <v>124</v>
       </c>
-      <c r="AK69" t="s">
+      <c r="AL69" t="s">
         <v>125</v>
       </c>
-      <c r="AP69">
+      <c r="AQ69">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -5855,11 +5862,11 @@
       <c r="W71" t="b">
         <v>1</v>
       </c>
-      <c r="AP71">
+      <c r="AQ71">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>137</v>
       </c>
@@ -5893,11 +5900,11 @@
       <c r="W72" t="b">
         <v>1</v>
       </c>
-      <c r="AP72">
+      <c r="AQ72">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -5931,11 +5938,11 @@
       <c r="W73" t="b">
         <v>1</v>
       </c>
-      <c r="AP73">
+      <c r="AQ73">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -5969,19 +5976,19 @@
       <c r="W74" t="b">
         <v>1</v>
       </c>
-      <c r="AP74">
+      <c r="AQ74">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>730</v>
       </c>
@@ -6000,11 +6007,11 @@
       <c r="I77" t="s">
         <v>744</v>
       </c>
-      <c r="AP77">
+      <c r="AQ77">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>731</v>
       </c>
@@ -6023,11 +6030,11 @@
       <c r="I78" t="s">
         <v>744</v>
       </c>
-      <c r="AP78">
+      <c r="AQ78">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>732</v>
       </c>
@@ -6046,11 +6053,11 @@
       <c r="I79" t="s">
         <v>744</v>
       </c>
-      <c r="AP79">
+      <c r="AQ79">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>733</v>
       </c>
@@ -6069,11 +6076,11 @@
       <c r="I80" t="s">
         <v>744</v>
       </c>
-      <c r="AP80">
+      <c r="AQ80">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>734</v>
       </c>
@@ -6092,11 +6099,11 @@
       <c r="I81" t="s">
         <v>744</v>
       </c>
-      <c r="AP81">
+      <c r="AQ81">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>735</v>
       </c>
@@ -6115,11 +6122,11 @@
       <c r="I82" t="s">
         <v>744</v>
       </c>
-      <c r="AP82">
+      <c r="AQ82">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>736</v>
       </c>
@@ -6138,11 +6145,11 @@
       <c r="I83" t="s">
         <v>752</v>
       </c>
-      <c r="AP83">
+      <c r="AQ83">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>753</v>
       </c>
@@ -6161,11 +6168,11 @@
       <c r="I84" t="s">
         <v>752</v>
       </c>
-      <c r="AP84">
+      <c r="AQ84">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>737</v>
       </c>
@@ -6184,11 +6191,11 @@
       <c r="I85" t="s">
         <v>752</v>
       </c>
-      <c r="AP85">
+      <c r="AQ85">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>738</v>
       </c>
@@ -6207,11 +6214,11 @@
       <c r="I86" t="s">
         <v>752</v>
       </c>
-      <c r="AP86">
+      <c r="AQ86">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>739</v>
       </c>
@@ -6230,11 +6237,11 @@
       <c r="I87" t="s">
         <v>752</v>
       </c>
-      <c r="AP87">
+      <c r="AQ87">
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>740</v>
       </c>
@@ -6253,11 +6260,11 @@
       <c r="I88" t="s">
         <v>752</v>
       </c>
-      <c r="AP88">
+      <c r="AQ88">
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>741</v>
       </c>
@@ -6276,11 +6283,11 @@
       <c r="I89" t="s">
         <v>752</v>
       </c>
-      <c r="AP89">
+      <c r="AQ89">
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>742</v>
       </c>
@@ -6299,11 +6306,11 @@
       <c r="H90" t="s">
         <v>729</v>
       </c>
-      <c r="AP90">
+      <c r="AQ90">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>746</v>
       </c>
@@ -6322,11 +6329,11 @@
       <c r="H91" t="s">
         <v>729</v>
       </c>
-      <c r="AP91">
+      <c r="AQ91">
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>761</v>
       </c>
@@ -6345,11 +6352,11 @@
       <c r="H92" t="s">
         <v>714</v>
       </c>
-      <c r="AP92">
+      <c r="AQ92">
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>755</v>
       </c>
@@ -6377,11 +6384,11 @@
       <c r="R93" t="s">
         <v>757</v>
       </c>
-      <c r="AP93">
+      <c r="AQ93">
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>750</v>
       </c>
@@ -6409,11 +6416,11 @@
       <c r="R94" t="s">
         <v>757</v>
       </c>
-      <c r="AP94">
+      <c r="AQ94">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>751</v>
       </c>
@@ -6441,11 +6448,11 @@
       <c r="R95" t="s">
         <v>756</v>
       </c>
-      <c r="AP95">
+      <c r="AQ95">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>759</v>
       </c>
@@ -6473,11 +6480,11 @@
       <c r="R96" t="s">
         <v>756</v>
       </c>
-      <c r="AP96">
+      <c r="AQ96">
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>422</v>
       </c>
@@ -6505,11 +6512,11 @@
       <c r="R97" t="s">
         <v>417</v>
       </c>
-      <c r="AP97">
+      <c r="AQ97">
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>424</v>
       </c>
@@ -6537,11 +6544,11 @@
       <c r="R98" t="s">
         <v>417</v>
       </c>
-      <c r="AP98">
+      <c r="AQ98">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>423</v>
       </c>
@@ -6569,11 +6576,11 @@
       <c r="R99" t="s">
         <v>417</v>
       </c>
-      <c r="AP99">
+      <c r="AQ99">
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>426</v>
       </c>
@@ -6607,23 +6614,23 @@
       <c r="AA100">
         <v>11</v>
       </c>
-      <c r="AH100" t="s">
+      <c r="AI100" t="s">
         <v>819</v>
       </c>
-      <c r="AI100" t="s">
+      <c r="AJ100" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ100">
-        <v>2</v>
       </c>
       <c r="AK100">
         <v>2</v>
       </c>
-      <c r="AP100">
+      <c r="AL100">
+        <v>2</v>
+      </c>
+      <c r="AQ100">
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>817</v>
       </c>
@@ -6648,23 +6655,23 @@
       <c r="AA101">
         <v>11</v>
       </c>
-      <c r="AH101" t="s">
+      <c r="AI101" t="s">
         <v>819</v>
       </c>
-      <c r="AI101" t="s">
+      <c r="AJ101" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ101">
-        <v>2</v>
       </c>
       <c r="AK101">
         <v>2</v>
       </c>
-      <c r="AP101">
+      <c r="AL101">
+        <v>2</v>
+      </c>
+      <c r="AQ101">
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>820</v>
       </c>
@@ -6689,23 +6696,23 @@
       <c r="AA102">
         <v>11</v>
       </c>
-      <c r="AH102" t="s">
+      <c r="AI102" t="s">
         <v>819</v>
       </c>
-      <c r="AI102" t="s">
+      <c r="AJ102" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ102">
-        <v>2</v>
       </c>
       <c r="AK102">
         <v>2</v>
       </c>
-      <c r="AP102">
+      <c r="AL102">
+        <v>2</v>
+      </c>
+      <c r="AQ102">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>823</v>
       </c>
@@ -6730,23 +6737,23 @@
       <c r="AA103">
         <v>11</v>
       </c>
-      <c r="AH103" t="s">
+      <c r="AI103" t="s">
         <v>819</v>
       </c>
-      <c r="AI103" t="s">
+      <c r="AJ103" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ103">
-        <v>2</v>
       </c>
       <c r="AK103">
         <v>2</v>
       </c>
-      <c r="AP103">
+      <c r="AL103">
+        <v>2</v>
+      </c>
+      <c r="AQ103">
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>822</v>
       </c>
@@ -6774,23 +6781,23 @@
       <c r="AB104" t="s">
         <v>829</v>
       </c>
-      <c r="AH104" t="s">
+      <c r="AI104" t="s">
         <v>819</v>
       </c>
-      <c r="AI104" t="s">
+      <c r="AJ104" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ104">
-        <v>2</v>
       </c>
       <c r="AK104">
         <v>2</v>
       </c>
-      <c r="AP104">
+      <c r="AL104">
+        <v>2</v>
+      </c>
+      <c r="AQ104">
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>719</v>
       </c>
@@ -6821,11 +6828,11 @@
       <c r="U105" t="s">
         <v>159</v>
       </c>
-      <c r="AP105">
+      <c r="AQ105">
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>726</v>
       </c>
@@ -6856,11 +6863,11 @@
       <c r="U106" t="s">
         <v>159</v>
       </c>
-      <c r="AP106">
+      <c r="AQ106">
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>724</v>
       </c>
@@ -6894,23 +6901,23 @@
       <c r="AA107">
         <v>11</v>
       </c>
-      <c r="AH107" t="s">
+      <c r="AI107" t="s">
         <v>819</v>
       </c>
-      <c r="AI107" t="s">
+      <c r="AJ107" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ107">
-        <v>2</v>
       </c>
       <c r="AK107">
         <v>2</v>
       </c>
-      <c r="AP107">
+      <c r="AL107">
+        <v>2</v>
+      </c>
+      <c r="AQ107">
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>722</v>
       </c>
@@ -6941,11 +6948,11 @@
       <c r="U108" t="s">
         <v>159</v>
       </c>
-      <c r="AP108">
+      <c r="AQ108">
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>727</v>
       </c>
@@ -6976,11 +6983,11 @@
       <c r="U109" t="s">
         <v>159</v>
       </c>
-      <c r="AP109">
+      <c r="AQ109">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>725</v>
       </c>
@@ -7014,26 +7021,26 @@
       <c r="AA110">
         <v>11</v>
       </c>
-      <c r="AH110" t="s">
+      <c r="AI110" t="s">
         <v>819</v>
       </c>
-      <c r="AI110" t="s">
+      <c r="AJ110" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ110">
-        <v>2</v>
       </c>
       <c r="AK110">
         <v>2</v>
       </c>
-      <c r="AP110">
+      <c r="AL110">
+        <v>2</v>
+      </c>
+      <c r="AQ110">
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>809</v>
       </c>
@@ -7055,14 +7062,14 @@
       <c r="J112" t="s">
         <v>43</v>
       </c>
-      <c r="AN112" t="s">
+      <c r="AO112" t="s">
         <v>812</v>
       </c>
-      <c r="AP112">
+      <c r="AQ112">
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>810</v>
       </c>
@@ -7084,14 +7091,14 @@
       <c r="J113" t="s">
         <v>43</v>
       </c>
-      <c r="AN113" t="s">
+      <c r="AO113" t="s">
         <v>812</v>
       </c>
-      <c r="AP113">
+      <c r="AQ113">
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>811</v>
       </c>
@@ -7113,14 +7120,14 @@
       <c r="J114" t="s">
         <v>43</v>
       </c>
-      <c r="AN114" t="s">
+      <c r="AO114" t="s">
         <v>812</v>
       </c>
-      <c r="AP114">
+      <c r="AQ114">
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>804</v>
       </c>
@@ -7148,14 +7155,14 @@
       <c r="R115" t="s">
         <v>623</v>
       </c>
-      <c r="AN115" t="s">
+      <c r="AO115" t="s">
         <v>812</v>
       </c>
-      <c r="AP115">
+      <c r="AQ115">
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>805</v>
       </c>
@@ -7183,14 +7190,14 @@
       <c r="R116" t="s">
         <v>623</v>
       </c>
-      <c r="AN116" t="s">
+      <c r="AO116" t="s">
         <v>812</v>
       </c>
-      <c r="AP116">
+      <c r="AQ116">
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>806</v>
       </c>
@@ -7218,28 +7225,28 @@
       <c r="R117" t="s">
         <v>623</v>
       </c>
-      <c r="AN117" t="s">
+      <c r="AO117" t="s">
         <v>812</v>
       </c>
-      <c r="AP117">
+      <c r="AQ117">
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="120" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:42" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>902</v>
       </c>
@@ -7274,7 +7281,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="123" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>901</v>
       </c>
@@ -7309,7 +7316,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="124" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>881</v>
       </c>
@@ -7344,7 +7351,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="125" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>892</v>
       </c>
@@ -7379,7 +7386,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="126" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>893</v>
       </c>
@@ -7414,7 +7421,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="127" spans="1:42" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>877</v>
       </c>
@@ -7449,21 +7456,21 @@
         <v>899</v>
       </c>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>906</v>
       </c>
@@ -7494,11 +7501,11 @@
       <c r="U132" t="s">
         <v>898</v>
       </c>
-      <c r="AN132" t="s">
+      <c r="AO132" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="133" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>907</v>
       </c>
@@ -7529,11 +7536,11 @@
       <c r="U133" t="s">
         <v>898</v>
       </c>
-      <c r="AN133" t="s">
+      <c r="AO133" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="134" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>908</v>
       </c>
@@ -7564,11 +7571,11 @@
       <c r="U134" t="s">
         <v>898</v>
       </c>
-      <c r="AN134" t="s">
+      <c r="AO134" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="135" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>910</v>
       </c>
@@ -7599,11 +7606,11 @@
       <c r="U135" t="s">
         <v>898</v>
       </c>
-      <c r="AN135" t="s">
+      <c r="AO135" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="136" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>909</v>
       </c>
@@ -7634,14 +7641,14 @@
       <c r="U136" t="s">
         <v>898</v>
       </c>
-      <c r="AM136" t="s">
+      <c r="AN136" t="s">
         <v>670</v>
       </c>
-      <c r="AN136" t="s">
+      <c r="AO136" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="137" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>911</v>
       </c>
@@ -7675,11 +7682,11 @@
       <c r="U137" t="s">
         <v>898</v>
       </c>
-      <c r="AN137" t="s">
+      <c r="AO137" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="138" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>912</v>
       </c>
@@ -7713,11 +7720,11 @@
       <c r="U138" t="s">
         <v>898</v>
       </c>
-      <c r="AN138" t="s">
+      <c r="AO138" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="139" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>913</v>
       </c>
@@ -7751,11 +7758,11 @@
       <c r="U139" t="s">
         <v>898</v>
       </c>
-      <c r="AN139" t="s">
+      <c r="AO139" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="140" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>894</v>
       </c>
@@ -7789,11 +7796,11 @@
       <c r="U140" t="s">
         <v>898</v>
       </c>
-      <c r="AN140" t="s">
+      <c r="AO140" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="141" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>878</v>
       </c>
@@ -7827,17 +7834,17 @@
       <c r="U141" t="s">
         <v>898</v>
       </c>
-      <c r="AN141" t="s">
+      <c r="AO141" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>846</v>
       </c>
@@ -8810,7 +8817,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>456</v>
       </c>
@@ -8842,7 +8849,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>457</v>
       </c>
@@ -8877,10 +8884,10 @@
         <v>573</v>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>427</v>
       </c>
@@ -8912,7 +8919,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>688</v>
       </c>
@@ -8947,7 +8954,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>689</v>
       </c>
@@ -8982,7 +8989,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>428</v>
       </c>
@@ -9014,7 +9021,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>435</v>
       </c>
@@ -9046,7 +9053,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>436</v>
       </c>
@@ -9078,7 +9085,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>437</v>
       </c>
@@ -9110,7 +9117,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>438</v>
       </c>
@@ -9145,18 +9152,18 @@
         <v>520</v>
       </c>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>924</v>
       </c>
@@ -9187,11 +9194,11 @@
       <c r="U191" t="s">
         <v>159</v>
       </c>
-      <c r="AM191" t="s">
+      <c r="AN191" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="192" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>925</v>
       </c>
@@ -9220,7 +9227,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="193" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>927</v>
       </c>
@@ -9249,7 +9256,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="194" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>928</v>
       </c>
@@ -9278,7 +9285,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="195" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>930</v>
       </c>
@@ -9307,7 +9314,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="196" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:40" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>931</v>
       </c>
@@ -9335,11 +9342,11 @@
       <c r="R196" t="s">
         <v>874</v>
       </c>
-      <c r="AM196" t="s">
+      <c r="AN196" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>482</v>
       </c>
@@ -9371,10 +9378,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>486</v>
       </c>
@@ -9406,7 +9413,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>487</v>
       </c>
@@ -9438,7 +9445,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>662</v>
       </c>
@@ -9470,10 +9477,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:40" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>494</v>
       </c>
@@ -9505,7 +9512,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>495</v>
       </c>
@@ -9537,7 +9544,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>496</v>
       </c>
@@ -9569,7 +9576,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>497</v>
       </c>
@@ -9601,7 +9608,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>498</v>
       </c>
@@ -9633,7 +9640,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A208"/>
     </row>
     <row r="209" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -10514,7 +10521,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="241" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>693</v>
       </c>
@@ -10546,7 +10553,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="242" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>695</v>
       </c>
@@ -10581,7 +10588,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="243" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>696</v>
       </c>
@@ -10616,7 +10623,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="244" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>469</v>
       </c>
@@ -10645,7 +10652,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="245" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>468</v>
       </c>
@@ -10674,7 +10681,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="246" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>701</v>
       </c>
@@ -10706,7 +10713,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="247" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>702</v>
       </c>
@@ -10738,24 +10745,24 @@
         <v>159</v>
       </c>
     </row>
-    <row r="248" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="253" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>951</v>
       </c>
@@ -10783,11 +10790,11 @@
       <c r="R253" t="s">
         <v>467</v>
       </c>
-      <c r="AN253" s="5" t="s">
+      <c r="AO253" s="5" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="254" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>788</v>
       </c>
@@ -10821,11 +10828,11 @@
       <c r="U254" t="s">
         <v>159</v>
       </c>
-      <c r="AN254" t="s">
+      <c r="AO254" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="255" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>950</v>
       </c>
@@ -10853,11 +10860,11 @@
       <c r="R255" t="s">
         <v>954</v>
       </c>
-      <c r="AN255" t="s">
+      <c r="AO255" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="256" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>155</v>
       </c>
@@ -10885,11 +10892,11 @@
       <c r="R256" t="s">
         <v>467</v>
       </c>
-      <c r="AN256" t="s">
+      <c r="AO256" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="257" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>387</v>
       </c>
@@ -10917,11 +10924,11 @@
       <c r="R257" t="s">
         <v>467</v>
       </c>
-      <c r="AN257" t="s">
+      <c r="AO257" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="258" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>464</v>
       </c>
@@ -10946,11 +10953,11 @@
       <c r="R258" t="s">
         <v>467</v>
       </c>
-      <c r="AN258" t="s">
+      <c r="AO258" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="259" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>465</v>
       </c>
@@ -10975,11 +10982,11 @@
       <c r="R259" t="s">
         <v>467</v>
       </c>
-      <c r="AN259" t="s">
+      <c r="AO259" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="260" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>466</v>
       </c>
@@ -11007,11 +11014,11 @@
       <c r="T260" t="s">
         <v>520</v>
       </c>
-      <c r="AN260" t="s">
+      <c r="AO260" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="261" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>985</v>
       </c>
@@ -11042,11 +11049,11 @@
       <c r="U261" t="s">
         <v>167</v>
       </c>
-      <c r="AN261" t="s">
+      <c r="AO261" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="262" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>986</v>
       </c>
@@ -11077,11 +11084,11 @@
       <c r="U262" t="s">
         <v>168</v>
       </c>
-      <c r="AN262" t="s">
+      <c r="AO262" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="263" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>990</v>
       </c>
@@ -11109,11 +11116,11 @@
       <c r="R263" t="s">
         <v>771</v>
       </c>
-      <c r="AN263" t="s">
+      <c r="AO263" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="264" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>991</v>
       </c>
@@ -11147,11 +11154,11 @@
       <c r="U264" t="s">
         <v>159</v>
       </c>
-      <c r="AN264" t="s">
+      <c r="AO264" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="265" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>992</v>
       </c>
@@ -11182,11 +11189,11 @@
       <c r="S265" t="s">
         <v>771</v>
       </c>
-      <c r="AN265" t="s">
+      <c r="AO265" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="266" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>391</v>
       </c>
@@ -11217,11 +11224,11 @@
       <c r="U266" t="s">
         <v>168</v>
       </c>
-      <c r="AN266" t="s">
+      <c r="AO266" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="267" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>392</v>
       </c>
@@ -11252,11 +11259,11 @@
       <c r="U267" t="s">
         <v>168</v>
       </c>
-      <c r="AN267" t="s">
+      <c r="AO267" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="268" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>458</v>
       </c>
@@ -11284,11 +11291,11 @@
       <c r="U268" t="s">
         <v>168</v>
       </c>
-      <c r="AN268" t="s">
+      <c r="AO268" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="269" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>459</v>
       </c>
@@ -11316,11 +11323,11 @@
       <c r="U269" t="s">
         <v>168</v>
       </c>
-      <c r="AN269" t="s">
+      <c r="AO269" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="270" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>460</v>
       </c>
@@ -11351,22 +11358,22 @@
       <c r="U270" t="s">
         <v>168</v>
       </c>
-      <c r="AN270" t="s">
+      <c r="AO270" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="273" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:40" ht="90" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:41" ht="90" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>869</v>
       </c>
@@ -11397,11 +11404,11 @@
       <c r="S274" t="s">
         <v>874</v>
       </c>
-      <c r="AN274" t="s">
+      <c r="AO274" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="275" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>870</v>
       </c>
@@ -11432,11 +11439,11 @@
       <c r="S275" t="s">
         <v>935</v>
       </c>
-      <c r="AN275" t="s">
+      <c r="AO275" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="276" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>871</v>
       </c>
@@ -11467,11 +11474,11 @@
       <c r="S276" t="s">
         <v>934</v>
       </c>
-      <c r="AN276" t="s">
+      <c r="AO276" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="277" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>872</v>
       </c>
@@ -11502,11 +11509,11 @@
       <c r="S277" t="s">
         <v>933</v>
       </c>
-      <c r="AN277" t="s">
+      <c r="AO277" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="278" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>843</v>
       </c>
@@ -11537,11 +11544,11 @@
       <c r="S278" t="s">
         <v>900</v>
       </c>
-      <c r="AN278" t="s">
+      <c r="AO278" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="279" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>858</v>
       </c>
@@ -11572,19 +11579,19 @@
       <c r="S279" t="s">
         <v>905</v>
       </c>
-      <c r="AN279" t="s">
+      <c r="AO279" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="280" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A280"/>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="282" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>861</v>
       </c>
@@ -11612,11 +11619,11 @@
       <c r="R282" t="s">
         <v>874</v>
       </c>
-      <c r="AN282" t="s">
+      <c r="AO282" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="283" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:41" ht="75" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>862</v>
       </c>
@@ -11644,11 +11651,11 @@
       <c r="R283" t="s">
         <v>874</v>
       </c>
-      <c r="AN283" t="s">
+      <c r="AO283" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="284" spans="1:40" ht="90" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:41" ht="90" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>863</v>
       </c>
@@ -11676,11 +11683,11 @@
       <c r="R284" t="s">
         <v>874</v>
       </c>
-      <c r="AN284" t="s">
+      <c r="AO284" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="285" spans="1:40" ht="90" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:41" ht="90" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>864</v>
       </c>
@@ -11708,11 +11715,11 @@
       <c r="R285" t="s">
         <v>874</v>
       </c>
-      <c r="AN285" t="s">
+      <c r="AO285" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="286" spans="1:40" ht="105" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:41" ht="105" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>865</v>
       </c>
@@ -11740,14 +11747,14 @@
       <c r="R286" t="s">
         <v>874</v>
       </c>
-      <c r="AM286" t="s">
+      <c r="AN286" t="s">
         <v>670</v>
       </c>
-      <c r="AN286" t="s">
+      <c r="AO286" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="287" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:41" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>971</v>
       </c>
@@ -11775,14 +11782,14 @@
       <c r="R287" t="s">
         <v>874</v>
       </c>
-      <c r="AM287" t="s">
+      <c r="AN287" t="s">
         <v>670</v>
       </c>
-      <c r="AN287" t="s">
+      <c r="AO287" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="288" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>866</v>
       </c>
@@ -11813,11 +11820,11 @@
       <c r="T288" t="s">
         <v>117</v>
       </c>
-      <c r="AN288" t="s">
+      <c r="AO288" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="289" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>970</v>
       </c>
@@ -11848,11 +11855,11 @@
       <c r="T289" t="s">
         <v>117</v>
       </c>
-      <c r="AN289" t="s">
+      <c r="AO289" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="290" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>867</v>
       </c>
@@ -11883,11 +11890,11 @@
       <c r="T290" t="s">
         <v>499</v>
       </c>
-      <c r="AN290" t="s">
+      <c r="AO290" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="291" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>965</v>
       </c>
@@ -11918,11 +11925,11 @@
       <c r="T291" t="s">
         <v>499</v>
       </c>
-      <c r="AN291" t="s">
+      <c r="AO291" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="292" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>868</v>
       </c>
@@ -11953,11 +11960,11 @@
       <c r="T292" t="s">
         <v>511</v>
       </c>
-      <c r="AN292" t="s">
+      <c r="AO292" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="293" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>969</v>
       </c>
@@ -11988,11 +11995,11 @@
       <c r="T293" t="s">
         <v>511</v>
       </c>
-      <c r="AN293" t="s">
+      <c r="AO293" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="294" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>848</v>
       </c>
@@ -12023,11 +12030,11 @@
       <c r="T294" t="s">
         <v>573</v>
       </c>
-      <c r="AN294" t="s">
+      <c r="AO294" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="295" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>968</v>
       </c>
@@ -12058,11 +12065,11 @@
       <c r="T295" t="s">
         <v>573</v>
       </c>
-      <c r="AN295" t="s">
+      <c r="AO295" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="296" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>857</v>
       </c>
@@ -12093,11 +12100,11 @@
       <c r="T296" t="s">
         <v>520</v>
       </c>
-      <c r="AN296" t="s">
+      <c r="AO296" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="297" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>941</v>
       </c>
@@ -12128,19 +12135,19 @@
       <c r="T297" t="s">
         <v>520</v>
       </c>
-      <c r="AN297" t="s">
+      <c r="AO297" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="298" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A298"/>
     </row>
-    <row r="299" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="300" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1005</v>
       </c>
@@ -12162,11 +12169,11 @@
       <c r="J300" t="s">
         <v>322</v>
       </c>
-      <c r="AN300" t="s">
+      <c r="AO300" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="301" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1006</v>
       </c>
@@ -12188,11 +12195,11 @@
       <c r="J301" t="s">
         <v>322</v>
       </c>
-      <c r="AN301" t="s">
+      <c r="AO301" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="302" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1007</v>
       </c>
@@ -12214,11 +12221,11 @@
       <c r="J302" t="s">
         <v>322</v>
       </c>
-      <c r="AN302" t="s">
+      <c r="AO302" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="303" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:41" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1008</v>
       </c>
@@ -12240,11 +12247,11 @@
       <c r="J303" t="s">
         <v>340</v>
       </c>
-      <c r="AN303" t="s">
+      <c r="AO303" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="304" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>830</v>
       </c>
@@ -12266,11 +12273,11 @@
       <c r="J304" t="s">
         <v>340</v>
       </c>
-      <c r="AN304" t="s">
+      <c r="AO304" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="305" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>176</v>
       </c>
@@ -12310,17 +12317,17 @@
       <c r="AD305" t="s">
         <v>135</v>
       </c>
-      <c r="AH305" t="s">
+      <c r="AI305" t="s">
         <v>185</v>
       </c>
-      <c r="AI305" t="s">
+      <c r="AJ305" t="s">
         <v>186</v>
       </c>
-      <c r="AJ305" t="s">
+      <c r="AK305" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="306" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>188</v>
       </c>
@@ -12360,17 +12367,17 @@
       <c r="AD306" t="s">
         <v>135</v>
       </c>
-      <c r="AH306" t="s">
+      <c r="AI306" t="s">
         <v>185</v>
       </c>
-      <c r="AI306" t="s">
+      <c r="AJ306" t="s">
         <v>186</v>
       </c>
-      <c r="AJ306" t="s">
+      <c r="AK306" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="307" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>190</v>
       </c>
@@ -12393,7 +12400,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="308" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>193</v>
       </c>
@@ -12416,7 +12423,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="309" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>194</v>
       </c>
@@ -12439,7 +12446,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="310" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>198</v>
       </c>
@@ -12465,7 +12472,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="311" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>202</v>
       </c>
@@ -12491,7 +12498,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="312" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>204</v>
       </c>
@@ -12514,7 +12521,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="313" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>207</v>
       </c>
@@ -12537,7 +12544,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="314" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>209</v>
       </c>
@@ -12580,17 +12587,17 @@
       <c r="AD314" t="s">
         <v>135</v>
       </c>
-      <c r="AH314" t="s">
+      <c r="AI314" t="s">
         <v>185</v>
       </c>
-      <c r="AI314" t="s">
+      <c r="AJ314" t="s">
         <v>186</v>
       </c>
-      <c r="AJ314" t="s">
+      <c r="AK314" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="315" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>213</v>
       </c>
@@ -12633,17 +12640,17 @@
       <c r="AD315" t="s">
         <v>135</v>
       </c>
-      <c r="AH315" t="s">
+      <c r="AI315" t="s">
         <v>185</v>
       </c>
-      <c r="AI315" t="s">
+      <c r="AJ315" t="s">
         <v>186</v>
       </c>
-      <c r="AJ315" t="s">
+      <c r="AK315" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="316" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>215</v>
       </c>
@@ -12683,17 +12690,17 @@
       <c r="AD316" t="s">
         <v>135</v>
       </c>
-      <c r="AH316" t="s">
+      <c r="AI316" t="s">
         <v>185</v>
       </c>
-      <c r="AI316" t="s">
+      <c r="AJ316" t="s">
         <v>186</v>
       </c>
-      <c r="AJ316" t="s">
+      <c r="AK316" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="317" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>217</v>
       </c>
@@ -12733,17 +12740,17 @@
       <c r="AD317" t="s">
         <v>135</v>
       </c>
-      <c r="AH317" t="s">
+      <c r="AI317" t="s">
         <v>185</v>
       </c>
-      <c r="AI317" t="s">
+      <c r="AJ317" t="s">
         <v>186</v>
       </c>
-      <c r="AJ317" t="s">
+      <c r="AK317" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="318" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>218</v>
       </c>
@@ -12766,7 +12773,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="319" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>222</v>
       </c>
@@ -12789,7 +12796,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="320" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>223</v>
       </c>
@@ -13208,12 +13215,12 @@
     <row r="336" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A336"/>
     </row>
-    <row r="337" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="338" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>268</v>
       </c>
@@ -13250,17 +13257,17 @@
       <c r="AD338" t="s">
         <v>135</v>
       </c>
-      <c r="AH338" t="s">
+      <c r="AI338" t="s">
         <v>185</v>
       </c>
-      <c r="AI338" t="s">
+      <c r="AJ338" t="s">
         <v>186</v>
       </c>
-      <c r="AJ338" t="s">
+      <c r="AK338" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="339" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>273</v>
       </c>
@@ -13297,17 +13304,17 @@
       <c r="AD339" t="s">
         <v>135</v>
       </c>
-      <c r="AH339" t="s">
+      <c r="AI339" t="s">
         <v>185</v>
       </c>
-      <c r="AI339" t="s">
+      <c r="AJ339" t="s">
         <v>186</v>
       </c>
-      <c r="AJ339" t="s">
+      <c r="AK339" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="340" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>276</v>
       </c>
@@ -13344,17 +13351,17 @@
       <c r="AD340" t="s">
         <v>135</v>
       </c>
-      <c r="AH340" t="s">
+      <c r="AI340" t="s">
         <v>185</v>
       </c>
-      <c r="AI340" t="s">
+      <c r="AJ340" t="s">
         <v>186</v>
       </c>
-      <c r="AJ340" t="s">
+      <c r="AK340" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="341" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>279</v>
       </c>
@@ -13377,7 +13384,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="342" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>282</v>
       </c>
@@ -13400,7 +13407,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="343" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>285</v>
       </c>
@@ -13423,7 +13430,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="344" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>288</v>
       </c>
@@ -13446,7 +13453,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="345" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>716</v>
       </c>
@@ -13469,7 +13476,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="346" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>586</v>
       </c>
@@ -13495,7 +13502,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="347" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>587</v>
       </c>
@@ -13521,7 +13528,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="348" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>293</v>
       </c>
@@ -13544,7 +13551,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="349" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>296</v>
       </c>
@@ -13567,7 +13574,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="350" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>299</v>
       </c>
@@ -13590,7 +13597,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="351" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>302</v>
       </c>
@@ -13613,7 +13620,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="352" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>305</v>
       </c>
@@ -14070,7 +14077,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="369" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>619</v>
       </c>
@@ -14093,7 +14100,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="370" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>614</v>
       </c>
@@ -14122,7 +14129,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="371" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>615</v>
       </c>
@@ -14151,7 +14158,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="372" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>764</v>
       </c>
@@ -14180,7 +14187,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="373" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>766</v>
       </c>
@@ -14212,7 +14219,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="374" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>328</v>
       </c>
@@ -14235,7 +14242,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="375" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>332</v>
       </c>
@@ -14258,7 +14265,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="376" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>334</v>
       </c>
@@ -14281,7 +14288,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="377" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>336</v>
       </c>
@@ -14304,15 +14311,15 @@
         <v>240</v>
       </c>
     </row>
-    <row r="378" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A378"/>
     </row>
-    <row r="379" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="380" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>522</v>
       </c>
@@ -14355,20 +14362,20 @@
       <c r="AG380" t="s">
         <v>339</v>
       </c>
-      <c r="AH380" t="s">
+      <c r="AI380" t="s">
         <v>123</v>
       </c>
-      <c r="AI380" t="s">
+      <c r="AJ380" t="s">
         <v>340</v>
-      </c>
-      <c r="AJ380" t="s">
-        <v>124</v>
       </c>
       <c r="AK380" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="381" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL380" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="381" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>523</v>
       </c>
@@ -14411,20 +14418,20 @@
       <c r="AG381" t="s">
         <v>339</v>
       </c>
-      <c r="AH381" t="s">
+      <c r="AI381" t="s">
         <v>123</v>
       </c>
-      <c r="AI381" t="s">
+      <c r="AJ381" t="s">
         <v>340</v>
-      </c>
-      <c r="AJ381" t="s">
-        <v>124</v>
       </c>
       <c r="AK381" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="382" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL381" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="382" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>524</v>
       </c>
@@ -14467,20 +14474,20 @@
       <c r="AG382" t="s">
         <v>339</v>
       </c>
-      <c r="AH382" t="s">
+      <c r="AI382" t="s">
         <v>123</v>
       </c>
-      <c r="AI382" t="s">
+      <c r="AJ382" t="s">
         <v>340</v>
-      </c>
-      <c r="AJ382" t="s">
-        <v>124</v>
       </c>
       <c r="AK382" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="383" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL382" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="383" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>525</v>
       </c>
@@ -14523,20 +14530,20 @@
       <c r="AG383" t="s">
         <v>339</v>
       </c>
-      <c r="AH383" t="s">
+      <c r="AI383" t="s">
         <v>123</v>
       </c>
-      <c r="AI383" t="s">
+      <c r="AJ383" t="s">
         <v>340</v>
-      </c>
-      <c r="AJ383" t="s">
-        <v>124</v>
       </c>
       <c r="AK383" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="384" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL383" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="384" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>526</v>
       </c>
@@ -14579,20 +14586,20 @@
       <c r="AG384" t="s">
         <v>339</v>
       </c>
-      <c r="AH384" t="s">
+      <c r="AI384" t="s">
         <v>123</v>
       </c>
-      <c r="AI384" t="s">
+      <c r="AJ384" t="s">
         <v>340</v>
-      </c>
-      <c r="AJ384" t="s">
-        <v>124</v>
       </c>
       <c r="AK384" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="385" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL384" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="385" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>527</v>
       </c>
@@ -14635,20 +14642,20 @@
       <c r="AG385" t="s">
         <v>339</v>
       </c>
-      <c r="AH385" t="s">
+      <c r="AI385" t="s">
         <v>123</v>
       </c>
-      <c r="AI385" t="s">
+      <c r="AJ385" t="s">
         <v>340</v>
-      </c>
-      <c r="AJ385" t="s">
-        <v>124</v>
       </c>
       <c r="AK385" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="386" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL385" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="386" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>530</v>
       </c>
@@ -14691,20 +14698,20 @@
       <c r="AG386" t="s">
         <v>339</v>
       </c>
-      <c r="AH386" t="s">
+      <c r="AI386" t="s">
         <v>123</v>
       </c>
-      <c r="AI386" t="s">
+      <c r="AJ386" t="s">
         <v>342</v>
-      </c>
-      <c r="AJ386" t="s">
-        <v>124</v>
       </c>
       <c r="AK386" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="387" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL386" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="387" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>531</v>
       </c>
@@ -14747,20 +14754,20 @@
       <c r="AG387" t="s">
         <v>339</v>
       </c>
-      <c r="AH387" t="s">
+      <c r="AI387" t="s">
         <v>123</v>
       </c>
-      <c r="AI387" t="s">
+      <c r="AJ387" t="s">
         <v>342</v>
-      </c>
-      <c r="AJ387" t="s">
-        <v>124</v>
       </c>
       <c r="AK387" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="388" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL387" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="388" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>532</v>
       </c>
@@ -14803,20 +14810,20 @@
       <c r="AG388" t="s">
         <v>339</v>
       </c>
-      <c r="AH388" t="s">
+      <c r="AI388" t="s">
         <v>123</v>
       </c>
-      <c r="AI388" t="s">
+      <c r="AJ388" t="s">
         <v>342</v>
-      </c>
-      <c r="AJ388" t="s">
-        <v>124</v>
       </c>
       <c r="AK388" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="389" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL388" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="389" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>533</v>
       </c>
@@ -14859,20 +14866,20 @@
       <c r="AG389" t="s">
         <v>339</v>
       </c>
-      <c r="AH389" t="s">
+      <c r="AI389" t="s">
         <v>123</v>
       </c>
-      <c r="AI389" t="s">
+      <c r="AJ389" t="s">
         <v>342</v>
-      </c>
-      <c r="AJ389" t="s">
-        <v>124</v>
       </c>
       <c r="AK389" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="390" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL389" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="390" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>534</v>
       </c>
@@ -14915,20 +14922,20 @@
       <c r="AG390" t="s">
         <v>339</v>
       </c>
-      <c r="AH390" t="s">
+      <c r="AI390" t="s">
         <v>123</v>
       </c>
-      <c r="AI390" t="s">
+      <c r="AJ390" t="s">
         <v>342</v>
-      </c>
-      <c r="AJ390" t="s">
-        <v>124</v>
       </c>
       <c r="AK390" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="391" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL390" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="391" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>535</v>
       </c>
@@ -14971,20 +14978,20 @@
       <c r="AG391" t="s">
         <v>339</v>
       </c>
-      <c r="AH391" t="s">
+      <c r="AI391" t="s">
         <v>123</v>
       </c>
-      <c r="AI391" t="s">
+      <c r="AJ391" t="s">
         <v>342</v>
-      </c>
-      <c r="AJ391" t="s">
-        <v>124</v>
       </c>
       <c r="AK391" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="392" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL391" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="392" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>537</v>
       </c>
@@ -15027,20 +15034,20 @@
       <c r="AG392" t="s">
         <v>339</v>
       </c>
-      <c r="AH392" t="s">
+      <c r="AI392" t="s">
         <v>322</v>
       </c>
-      <c r="AI392" t="s">
+      <c r="AJ392" t="s">
         <v>344</v>
-      </c>
-      <c r="AJ392" t="s">
-        <v>124</v>
       </c>
       <c r="AK392" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="393" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL392" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="393" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>538</v>
       </c>
@@ -15083,20 +15090,20 @@
       <c r="AG393" t="s">
         <v>339</v>
       </c>
-      <c r="AH393" t="s">
+      <c r="AI393" t="s">
         <v>322</v>
       </c>
-      <c r="AI393" t="s">
+      <c r="AJ393" t="s">
         <v>344</v>
-      </c>
-      <c r="AJ393" t="s">
-        <v>124</v>
       </c>
       <c r="AK393" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="394" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL393" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="394" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>539</v>
       </c>
@@ -15139,20 +15146,20 @@
       <c r="AG394" t="s">
         <v>339</v>
       </c>
-      <c r="AH394" t="s">
+      <c r="AI394" t="s">
         <v>322</v>
       </c>
-      <c r="AI394" t="s">
+      <c r="AJ394" t="s">
         <v>344</v>
-      </c>
-      <c r="AJ394" t="s">
-        <v>124</v>
       </c>
       <c r="AK394" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="395" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL394" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="395" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>540</v>
       </c>
@@ -15195,20 +15202,20 @@
       <c r="AG395" t="s">
         <v>339</v>
       </c>
-      <c r="AH395" t="s">
+      <c r="AI395" t="s">
         <v>322</v>
       </c>
-      <c r="AI395" t="s">
+      <c r="AJ395" t="s">
         <v>344</v>
-      </c>
-      <c r="AJ395" t="s">
-        <v>124</v>
       </c>
       <c r="AK395" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="396" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL395" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="396" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>541</v>
       </c>
@@ -15251,20 +15258,20 @@
       <c r="AG396" t="s">
         <v>339</v>
       </c>
-      <c r="AH396" t="s">
+      <c r="AI396" t="s">
         <v>322</v>
       </c>
-      <c r="AI396" t="s">
+      <c r="AJ396" t="s">
         <v>344</v>
-      </c>
-      <c r="AJ396" t="s">
-        <v>124</v>
       </c>
       <c r="AK396" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="397" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL396" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="397" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>542</v>
       </c>
@@ -15307,20 +15314,20 @@
       <c r="AG397" t="s">
         <v>339</v>
       </c>
-      <c r="AH397" t="s">
+      <c r="AI397" t="s">
         <v>322</v>
       </c>
-      <c r="AI397" t="s">
+      <c r="AJ397" t="s">
         <v>344</v>
-      </c>
-      <c r="AJ397" t="s">
-        <v>124</v>
       </c>
       <c r="AK397" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="398" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL397" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="398" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>624</v>
       </c>
@@ -15360,20 +15367,20 @@
       <c r="AG398" t="s">
         <v>339</v>
       </c>
-      <c r="AH398" t="s">
+      <c r="AI398" t="s">
         <v>322</v>
       </c>
-      <c r="AI398" t="s">
+      <c r="AJ398" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ398" t="s">
-        <v>124</v>
       </c>
       <c r="AK398" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="399" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL398" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="399" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>625</v>
       </c>
@@ -15413,20 +15420,20 @@
       <c r="AG399" t="s">
         <v>339</v>
       </c>
-      <c r="AH399" t="s">
+      <c r="AI399" t="s">
         <v>322</v>
       </c>
-      <c r="AI399" t="s">
+      <c r="AJ399" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ399" t="s">
-        <v>124</v>
       </c>
       <c r="AK399" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="400" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL399" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="400" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>626</v>
       </c>
@@ -15466,20 +15473,20 @@
       <c r="AG400" t="s">
         <v>339</v>
       </c>
-      <c r="AH400" t="s">
+      <c r="AI400" t="s">
         <v>322</v>
       </c>
-      <c r="AI400" t="s">
+      <c r="AJ400" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ400" t="s">
-        <v>124</v>
       </c>
       <c r="AK400" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="401" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL400" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="401" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>627</v>
       </c>
@@ -15519,20 +15526,20 @@
       <c r="AG401" t="s">
         <v>339</v>
       </c>
-      <c r="AH401" t="s">
+      <c r="AI401" t="s">
         <v>322</v>
       </c>
-      <c r="AI401" t="s">
+      <c r="AJ401" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ401" t="s">
-        <v>124</v>
       </c>
       <c r="AK401" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="402" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL401" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="402" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>628</v>
       </c>
@@ -15572,20 +15579,20 @@
       <c r="AG402" t="s">
         <v>339</v>
       </c>
-      <c r="AH402" t="s">
+      <c r="AI402" t="s">
         <v>322</v>
       </c>
-      <c r="AI402" t="s">
+      <c r="AJ402" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ402" t="s">
-        <v>124</v>
       </c>
       <c r="AK402" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="403" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL402" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="403" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>629</v>
       </c>
@@ -15625,20 +15632,20 @@
       <c r="AG403" t="s">
         <v>339</v>
       </c>
-      <c r="AH403" t="s">
+      <c r="AI403" t="s">
         <v>322</v>
       </c>
-      <c r="AI403" t="s">
+      <c r="AJ403" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ403" t="s">
-        <v>124</v>
       </c>
       <c r="AK403" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="404" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL403" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="404" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>632</v>
       </c>
@@ -15669,20 +15676,20 @@
       <c r="AG404" t="s">
         <v>339</v>
       </c>
-      <c r="AH404" t="s">
+      <c r="AI404" t="s">
         <v>123</v>
       </c>
-      <c r="AI404" t="s">
+      <c r="AJ404" t="s">
         <v>634</v>
-      </c>
-      <c r="AJ404" t="s">
-        <v>124</v>
       </c>
       <c r="AK404" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="405" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL404" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="405" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>635</v>
       </c>
@@ -15713,20 +15720,20 @@
       <c r="AG405" t="s">
         <v>339</v>
       </c>
-      <c r="AH405" t="s">
+      <c r="AI405" t="s">
         <v>123</v>
       </c>
-      <c r="AI405" t="s">
+      <c r="AJ405" t="s">
         <v>634</v>
-      </c>
-      <c r="AJ405" t="s">
-        <v>124</v>
       </c>
       <c r="AK405" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="406" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL405" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="406" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>590</v>
       </c>
@@ -15763,20 +15770,20 @@
       <c r="AG406" t="s">
         <v>339</v>
       </c>
-      <c r="AH406" t="s">
+      <c r="AI406" t="s">
         <v>322</v>
       </c>
-      <c r="AI406" t="s">
+      <c r="AJ406" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ406" t="s">
-        <v>125</v>
       </c>
       <c r="AK406" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="407" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL406" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="407" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>591</v>
       </c>
@@ -15813,20 +15820,20 @@
       <c r="AG407" t="s">
         <v>339</v>
       </c>
-      <c r="AH407" t="s">
+      <c r="AI407" t="s">
         <v>322</v>
       </c>
-      <c r="AI407" t="s">
+      <c r="AJ407" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ407" t="s">
-        <v>125</v>
       </c>
       <c r="AK407" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="408" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL407" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="408" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>592</v>
       </c>
@@ -15863,20 +15870,20 @@
       <c r="AG408" t="s">
         <v>339</v>
       </c>
-      <c r="AH408" t="s">
+      <c r="AI408" t="s">
         <v>322</v>
       </c>
-      <c r="AI408" t="s">
+      <c r="AJ408" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ408" t="s">
-        <v>125</v>
       </c>
       <c r="AK408" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="409" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL408" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="409" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>593</v>
       </c>
@@ -15913,20 +15920,20 @@
       <c r="AG409" t="s">
         <v>339</v>
       </c>
-      <c r="AH409" t="s">
+      <c r="AI409" t="s">
         <v>322</v>
       </c>
-      <c r="AI409" t="s">
+      <c r="AJ409" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ409" t="s">
-        <v>125</v>
       </c>
       <c r="AK409" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="410" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL409" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="410" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>594</v>
       </c>
@@ -15963,20 +15970,20 @@
       <c r="AG410" t="s">
         <v>339</v>
       </c>
-      <c r="AH410" t="s">
+      <c r="AI410" t="s">
         <v>322</v>
       </c>
-      <c r="AI410" t="s">
+      <c r="AJ410" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ410" t="s">
-        <v>125</v>
       </c>
       <c r="AK410" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="411" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL410" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="411" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>595</v>
       </c>
@@ -16013,20 +16020,20 @@
       <c r="AG411" t="s">
         <v>339</v>
       </c>
-      <c r="AH411" t="s">
+      <c r="AI411" t="s">
         <v>322</v>
       </c>
-      <c r="AI411" t="s">
+      <c r="AJ411" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ411" t="s">
-        <v>125</v>
       </c>
       <c r="AK411" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="412" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL411" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="412" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>599</v>
       </c>
@@ -16066,17 +16073,17 @@
       <c r="AE412" t="s">
         <v>351</v>
       </c>
-      <c r="AH412" t="s">
+      <c r="AI412" t="s">
         <v>597</v>
       </c>
-      <c r="AI412" t="s">
+      <c r="AJ412" t="s">
         <v>186</v>
       </c>
-      <c r="AJ412" t="s">
+      <c r="AK412" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="413" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>600</v>
       </c>
@@ -16116,17 +16123,17 @@
       <c r="AE413" t="s">
         <v>351</v>
       </c>
-      <c r="AH413" t="s">
+      <c r="AI413" t="s">
         <v>597</v>
       </c>
-      <c r="AI413" t="s">
+      <c r="AJ413" t="s">
         <v>186</v>
       </c>
-      <c r="AJ413" t="s">
+      <c r="AK413" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="414" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>601</v>
       </c>
@@ -16163,17 +16170,17 @@
       <c r="AD414" t="s">
         <v>135</v>
       </c>
-      <c r="AH414" t="s">
+      <c r="AI414" t="s">
         <v>597</v>
       </c>
-      <c r="AI414" t="s">
+      <c r="AJ414" t="s">
         <v>186</v>
       </c>
-      <c r="AJ414" t="s">
+      <c r="AK414" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="415" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>602</v>
       </c>
@@ -16210,17 +16217,17 @@
       <c r="AD415" t="s">
         <v>135</v>
       </c>
-      <c r="AH415" t="s">
+      <c r="AI415" t="s">
         <v>597</v>
       </c>
-      <c r="AI415" t="s">
+      <c r="AJ415" t="s">
         <v>186</v>
       </c>
-      <c r="AJ415" t="s">
+      <c r="AK415" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="416" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>610</v>
       </c>
@@ -16257,17 +16264,17 @@
       <c r="AE416" t="s">
         <v>351</v>
       </c>
-      <c r="AH416" t="s">
+      <c r="AI416" t="s">
         <v>597</v>
       </c>
-      <c r="AI416" t="s">
+      <c r="AJ416" t="s">
         <v>186</v>
       </c>
-      <c r="AJ416" t="s">
+      <c r="AK416" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="417" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>603</v>
       </c>
@@ -16304,17 +16311,17 @@
       <c r="AE417" t="s">
         <v>351</v>
       </c>
-      <c r="AH417" t="s">
+      <c r="AI417" t="s">
         <v>597</v>
       </c>
-      <c r="AI417" t="s">
+      <c r="AJ417" t="s">
         <v>186</v>
       </c>
-      <c r="AJ417" t="s">
+      <c r="AK417" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="418" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>608</v>
       </c>
@@ -16351,17 +16358,17 @@
       <c r="AE418" t="s">
         <v>351</v>
       </c>
-      <c r="AH418" t="s">
+      <c r="AI418" t="s">
         <v>597</v>
       </c>
-      <c r="AI418" t="s">
+      <c r="AJ418" t="s">
         <v>186</v>
       </c>
-      <c r="AJ418" t="s">
+      <c r="AK418" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="419" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>606</v>
       </c>
@@ -16398,20 +16405,20 @@
       <c r="AE419" t="s">
         <v>351</v>
       </c>
-      <c r="AH419" t="s">
+      <c r="AI419" t="s">
         <v>597</v>
       </c>
-      <c r="AI419" t="s">
+      <c r="AJ419" t="s">
         <v>186</v>
       </c>
-      <c r="AJ419" t="s">
+      <c r="AK419" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="420" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A420"/>
     </row>
-    <row r="421" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>647</v>
       </c>
@@ -16448,17 +16455,17 @@
       <c r="AD421" t="s">
         <v>135</v>
       </c>
-      <c r="AH421" t="s">
+      <c r="AI421" t="s">
         <v>357</v>
       </c>
-      <c r="AI421" t="s">
+      <c r="AJ421" t="s">
         <v>186</v>
       </c>
-      <c r="AJ421" t="s">
+      <c r="AK421" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="422" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>648</v>
       </c>
@@ -16495,17 +16502,17 @@
       <c r="AD422" t="s">
         <v>135</v>
       </c>
-      <c r="AH422" t="s">
+      <c r="AI422" t="s">
         <v>357</v>
       </c>
-      <c r="AI422" t="s">
+      <c r="AJ422" t="s">
         <v>186</v>
       </c>
-      <c r="AJ422" t="s">
+      <c r="AK422" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="423" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>649</v>
       </c>
@@ -16539,17 +16546,17 @@
       <c r="AD423" t="s">
         <v>135</v>
       </c>
-      <c r="AH423" t="s">
+      <c r="AI423" t="s">
         <v>357</v>
       </c>
-      <c r="AI423" t="s">
+      <c r="AJ423" t="s">
         <v>186</v>
       </c>
-      <c r="AJ423" t="s">
+      <c r="AK423" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="424" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>640</v>
       </c>
@@ -16586,17 +16593,17 @@
       <c r="AD424" t="s">
         <v>135</v>
       </c>
-      <c r="AH424" t="s">
+      <c r="AI424" t="s">
         <v>642</v>
       </c>
-      <c r="AI424" t="s">
+      <c r="AJ424" t="s">
         <v>186</v>
       </c>
-      <c r="AJ424" t="s">
+      <c r="AK424" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="425" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>643</v>
       </c>
@@ -16633,17 +16640,17 @@
       <c r="AD425" t="s">
         <v>135</v>
       </c>
-      <c r="AH425" t="s">
+      <c r="AI425" t="s">
         <v>642</v>
       </c>
-      <c r="AI425" t="s">
+      <c r="AJ425" t="s">
         <v>186</v>
       </c>
-      <c r="AJ425" t="s">
+      <c r="AK425" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="426" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>644</v>
       </c>
@@ -16680,17 +16687,17 @@
       <c r="AD426" t="s">
         <v>135</v>
       </c>
-      <c r="AH426" t="s">
+      <c r="AI426" t="s">
         <v>642</v>
       </c>
-      <c r="AI426" t="s">
+      <c r="AJ426" t="s">
         <v>186</v>
       </c>
-      <c r="AJ426" t="s">
+      <c r="AK426" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="427" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>651</v>
       </c>
@@ -16721,17 +16728,17 @@
       <c r="AG427" t="s">
         <v>339</v>
       </c>
-      <c r="AH427" t="s">
+      <c r="AI427" t="s">
         <v>340</v>
       </c>
-      <c r="AI427" t="s">
+      <c r="AJ427" t="s">
         <v>123</v>
       </c>
-      <c r="AJ427" t="s">
+      <c r="AK427" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="428" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>652</v>
       </c>
@@ -16762,17 +16769,17 @@
       <c r="AG428" t="s">
         <v>339</v>
       </c>
-      <c r="AH428" t="s">
+      <c r="AI428" t="s">
         <v>638</v>
       </c>
-      <c r="AI428" t="s">
+      <c r="AJ428" t="s">
         <v>123</v>
       </c>
-      <c r="AJ428" t="s">
+      <c r="AK428" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="429" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>653</v>
       </c>
@@ -16803,25 +16810,25 @@
       <c r="AG429" t="s">
         <v>339</v>
       </c>
-      <c r="AH429" t="s">
+      <c r="AI429" t="s">
         <v>637</v>
       </c>
-      <c r="AI429" t="s">
+      <c r="AJ429" t="s">
         <v>123</v>
       </c>
-      <c r="AJ429" t="s">
+      <c r="AK429" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="430" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A430"/>
     </row>
-    <row r="431" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="432" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>563</v>
       </c>
@@ -16853,7 +16860,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="433" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>562</v>
       </c>
@@ -16885,7 +16892,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="434" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>564</v>
       </c>
@@ -16917,7 +16924,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="435" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>565</v>
       </c>
@@ -16949,7 +16956,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="436" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>566</v>
       </c>
@@ -16981,7 +16988,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="437" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>567</v>
       </c>
@@ -17013,7 +17020,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="438" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>568</v>
       </c>
@@ -17045,7 +17052,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="440" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>561</v>
       </c>
@@ -17077,7 +17084,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="441" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>556</v>
       </c>
@@ -17109,7 +17116,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="442" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>555</v>
       </c>
@@ -17141,7 +17148,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="443" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>553</v>
       </c>
@@ -17173,7 +17180,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="444" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>551</v>
       </c>
@@ -17205,7 +17212,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="445" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>550</v>
       </c>
@@ -17237,15 +17244,15 @@
         <v>560</v>
       </c>
     </row>
-    <row r="446" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A446"/>
     </row>
-    <row r="447" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="448" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A448" s="6" t="s">
         <v>1024</v>
       </c>
@@ -17345,25 +17352,26 @@
       <c r="AG448" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="AH448" t="s">
+      <c r="AH448" s="5"/>
+      <c r="AI448" t="s">
         <v>1045</v>
       </c>
-      <c r="AI448" t="s">
+      <c r="AJ448" t="s">
         <v>1046</v>
       </c>
-      <c r="AJ448" s="5" t="s">
+      <c r="AK448" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AK448">
+      <c r="AL448">
         <v>2.1</v>
       </c>
-      <c r="AL448" t="s">
+      <c r="AM448" t="s">
         <v>1047</v>
       </c>
-      <c r="AM448" t="s">
+      <c r="AN448" t="s">
         <v>1048</v>
       </c>
-      <c r="AN448" t="s">
+      <c r="AO448" t="s">
         <v>1049</v>
       </c>
     </row>

--- a/java/StyleConvert/src/test/resources/test03.xlsx
+++ b/java/StyleConvert/src/test/resources/test03.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="1062">
   <si>
     <t>id</t>
   </si>
@@ -3190,6 +3190,21 @@
   </si>
   <si>
     <t>text-letter-spacing</t>
+  </si>
+  <si>
+    <t>icon-text-fit</t>
+  </si>
+  <si>
+    <t>icon-text-fit-padding</t>
+  </si>
+  <si>
+    <t>wegnummer_rood</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>[0,5,0,6]</t>
   </si>
 </sst>
 </file>
@@ -4045,13 +4060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ449"/>
+  <dimension ref="A1:AS449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S374" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
+      <selection pane="bottomRight" activeCell="W396" sqref="W396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4079,26 +4094,28 @@
     <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.42578125" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="26" max="26" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="33.140625" customWidth="1"/>
-    <col min="41" max="41" width="39.85546875" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="33.140625" customWidth="1"/>
+    <col min="43" max="43" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4172,91 +4189,97 @@
         <v>22</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AO3" t="s">
         <v>1012</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>1014</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AQ3" t="s">
         <v>1013</v>
       </c>
-      <c r="AQ3">
+      <c r="AS3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1015</v>
       </c>
@@ -4278,14 +4301,14 @@
       <c r="J6" t="s">
         <v>411</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AQ6" t="s">
         <v>1018</v>
       </c>
-      <c r="AQ6">
+      <c r="AS6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1016</v>
       </c>
@@ -4304,14 +4327,14 @@
       <c r="I7" t="s">
         <v>410</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AQ7" t="s">
         <v>1003</v>
       </c>
-      <c r="AQ7">
+      <c r="AS7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1017</v>
       </c>
@@ -4330,14 +4353,14 @@
       <c r="I8" t="s">
         <v>410</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AQ8" t="s">
         <v>1003</v>
       </c>
-      <c r="AQ8">
+      <c r="AS8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1020</v>
       </c>
@@ -4356,14 +4379,14 @@
       <c r="H9" t="s">
         <v>792</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AQ9" t="s">
         <v>1019</v>
       </c>
-      <c r="AQ9">
+      <c r="AS9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1021</v>
       </c>
@@ -4382,14 +4405,14 @@
       <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AQ10" t="s">
         <v>1003</v>
       </c>
-      <c r="AQ10">
+      <c r="AS10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1022</v>
       </c>
@@ -4408,14 +4431,14 @@
       <c r="I11" t="s">
         <v>49</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AQ11" t="s">
         <v>1003</v>
       </c>
-      <c r="AQ11">
+      <c r="AS11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -4434,11 +4457,11 @@
       <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="AQ12">
+      <c r="AS12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>360</v>
       </c>
@@ -4457,11 +4480,11 @@
       <c r="I13" t="s">
         <v>367</v>
       </c>
-      <c r="AQ13">
+      <c r="AS13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>359</v>
       </c>
@@ -4480,11 +4503,11 @@
       <c r="I14" t="s">
         <v>367</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>358</v>
       </c>
@@ -4503,11 +4526,11 @@
       <c r="H15" t="s">
         <v>104</v>
       </c>
-      <c r="AQ15">
+      <c r="AS15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>418</v>
       </c>
@@ -4526,11 +4549,11 @@
       <c r="I16" t="s">
         <v>367</v>
       </c>
-      <c r="AQ16">
+      <c r="AS16">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -4549,11 +4572,11 @@
       <c r="H17" t="s">
         <v>56</v>
       </c>
-      <c r="AQ17">
+      <c r="AS17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>361</v>
       </c>
@@ -4572,11 +4595,11 @@
       <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="AQ18">
+      <c r="AS18">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -4595,11 +4618,11 @@
       <c r="I19" t="s">
         <v>364</v>
       </c>
-      <c r="AQ19">
+      <c r="AS19">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>363</v>
       </c>
@@ -4618,11 +4641,11 @@
       <c r="I20" t="s">
         <v>364</v>
       </c>
-      <c r="AQ20">
+      <c r="AS20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -4641,11 +4664,11 @@
       <c r="H21" t="s">
         <v>59</v>
       </c>
-      <c r="AQ21">
+      <c r="AS21">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -4664,11 +4687,11 @@
       <c r="H22" t="s">
         <v>62</v>
       </c>
-      <c r="AQ22">
+      <c r="AS22">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -4687,11 +4710,11 @@
       <c r="H23" t="s">
         <v>65</v>
       </c>
-      <c r="AQ23">
+      <c r="AS23">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>365</v>
       </c>
@@ -4710,11 +4733,11 @@
       <c r="H24" t="s">
         <v>70</v>
       </c>
-      <c r="AQ24">
+      <c r="AS24">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -4733,11 +4756,11 @@
       <c r="I25" t="s">
         <v>67</v>
       </c>
-      <c r="AQ25">
+      <c r="AS25">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -4756,11 +4779,11 @@
       <c r="I26" t="s">
         <v>67</v>
       </c>
-      <c r="AQ26">
+      <c r="AS26">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>397</v>
       </c>
@@ -4779,11 +4802,11 @@
       <c r="I27" t="s">
         <v>67</v>
       </c>
-      <c r="AQ27">
+      <c r="AS27">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>398</v>
       </c>
@@ -4802,11 +4825,11 @@
       <c r="I28" t="s">
         <v>67</v>
       </c>
-      <c r="AQ28">
+      <c r="AS28">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>399</v>
       </c>
@@ -4825,11 +4848,11 @@
       <c r="I29" t="s">
         <v>67</v>
       </c>
-      <c r="AQ29">
+      <c r="AS29">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -4851,11 +4874,11 @@
       <c r="J30" t="s">
         <v>74</v>
       </c>
-      <c r="AQ30">
+      <c r="AS30">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -4874,11 +4897,11 @@
       <c r="I31" t="s">
         <v>74</v>
       </c>
-      <c r="AQ31">
+      <c r="AS31">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -4897,11 +4920,11 @@
       <c r="I32" t="s">
         <v>74</v>
       </c>
-      <c r="AQ32">
+      <c r="AS32">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>371</v>
       </c>
@@ -4923,11 +4946,11 @@
       <c r="J33" t="s">
         <v>80</v>
       </c>
-      <c r="AQ33">
+      <c r="AS33">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>373</v>
       </c>
@@ -4946,11 +4969,11 @@
       <c r="I34" t="s">
         <v>74</v>
       </c>
-      <c r="AQ34">
+      <c r="AS34">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>372</v>
       </c>
@@ -4969,11 +4992,11 @@
       <c r="I35" t="s">
         <v>74</v>
       </c>
-      <c r="AQ35">
+      <c r="AS35">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -4992,11 +5015,11 @@
       <c r="I36" t="s">
         <v>421</v>
       </c>
-      <c r="AQ36">
+      <c r="AS36">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -5015,11 +5038,11 @@
       <c r="I37" t="s">
         <v>421</v>
       </c>
-      <c r="AQ37">
+      <c r="AS37">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -5038,11 +5061,11 @@
       <c r="I38" t="s">
         <v>421</v>
       </c>
-      <c r="AQ38">
+      <c r="AS38">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -5064,11 +5087,11 @@
       <c r="J39" t="s">
         <v>90</v>
       </c>
-      <c r="AQ39">
+      <c r="AS39">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -5087,11 +5110,11 @@
       <c r="I40" t="s">
         <v>367</v>
       </c>
-      <c r="AQ40">
+      <c r="AS40">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -5110,11 +5133,11 @@
       <c r="I41" t="s">
         <v>367</v>
       </c>
-      <c r="AQ41">
+      <c r="AS41">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -5136,11 +5159,11 @@
       <c r="J42" t="s">
         <v>96</v>
       </c>
-      <c r="AQ42">
+      <c r="AS42">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -5162,11 +5185,11 @@
       <c r="J43" t="s">
         <v>96</v>
       </c>
-      <c r="AQ43">
+      <c r="AS43">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -5188,11 +5211,11 @@
       <c r="J44" t="s">
         <v>96</v>
       </c>
-      <c r="AQ44">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AS44">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>375</v>
       </c>
@@ -5211,11 +5234,11 @@
       <c r="H45" t="s">
         <v>793</v>
       </c>
-      <c r="AQ45">
+      <c r="AS45">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>376</v>
       </c>
@@ -5237,11 +5260,11 @@
       <c r="J46" t="s">
         <v>101</v>
       </c>
-      <c r="AQ46">
+      <c r="AS46">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>377</v>
       </c>
@@ -5260,11 +5283,11 @@
       <c r="I47" t="s">
         <v>123</v>
       </c>
-      <c r="AQ47">
+      <c r="AS47">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>401</v>
       </c>
@@ -5283,11 +5306,11 @@
       <c r="I48" t="s">
         <v>123</v>
       </c>
-      <c r="AQ48">
+      <c r="AS48">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>402</v>
       </c>
@@ -5306,11 +5329,11 @@
       <c r="I49" t="s">
         <v>123</v>
       </c>
-      <c r="AQ49">
+      <c r="AS49">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>368</v>
       </c>
@@ -5329,11 +5352,11 @@
       <c r="I50" t="s">
         <v>386</v>
       </c>
-      <c r="AQ50">
+      <c r="AS50">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>369</v>
       </c>
@@ -5352,11 +5375,11 @@
       <c r="I51" t="s">
         <v>386</v>
       </c>
-      <c r="AQ51">
+      <c r="AS51">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>379</v>
       </c>
@@ -5378,11 +5401,11 @@
       <c r="J52" t="s">
         <v>80</v>
       </c>
-      <c r="AQ52">
+      <c r="AS52">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>381</v>
       </c>
@@ -5401,11 +5424,11 @@
       <c r="I53" t="s">
         <v>73</v>
       </c>
-      <c r="AQ53">
+      <c r="AS53">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>380</v>
       </c>
@@ -5424,11 +5447,11 @@
       <c r="I54" t="s">
         <v>73</v>
       </c>
-      <c r="AQ54">
+      <c r="AS54">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -5447,11 +5470,11 @@
       <c r="I55" t="s">
         <v>421</v>
       </c>
-      <c r="AQ55">
+      <c r="AS55">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -5470,11 +5493,11 @@
       <c r="I56" t="s">
         <v>421</v>
       </c>
-      <c r="AQ56">
+      <c r="AS56">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -5493,11 +5516,11 @@
       <c r="I57" t="s">
         <v>421</v>
       </c>
-      <c r="AQ57">
+      <c r="AS57">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>403</v>
       </c>
@@ -5516,11 +5539,11 @@
       <c r="I58" t="s">
         <v>421</v>
       </c>
-      <c r="AQ58">
+      <c r="AS58">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>404</v>
       </c>
@@ -5539,11 +5562,11 @@
       <c r="I59" t="s">
         <v>421</v>
       </c>
-      <c r="AQ59">
+      <c r="AS59">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>405</v>
       </c>
@@ -5562,11 +5585,11 @@
       <c r="I60" t="s">
         <v>421</v>
       </c>
-      <c r="AQ60">
+      <c r="AS60">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>707</v>
       </c>
@@ -5585,11 +5608,11 @@
       <c r="H61" t="s">
         <v>713</v>
       </c>
-      <c r="AQ61">
+      <c r="AS61">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>708</v>
       </c>
@@ -5608,11 +5631,11 @@
       <c r="H62" t="s">
         <v>714</v>
       </c>
-      <c r="AQ62">
+      <c r="AS62">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>709</v>
       </c>
@@ -5631,14 +5654,14 @@
       <c r="H63" t="s">
         <v>715</v>
       </c>
-      <c r="AQ63">
+      <c r="AS63">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>384</v>
       </c>
@@ -5666,11 +5689,11 @@
       <c r="R65" t="s">
         <v>417</v>
       </c>
-      <c r="AQ65">
+      <c r="AS65">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>412</v>
       </c>
@@ -5698,11 +5721,11 @@
       <c r="R66" t="s">
         <v>417</v>
       </c>
-      <c r="AQ66">
+      <c r="AS66">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>413</v>
       </c>
@@ -5730,11 +5753,11 @@
       <c r="R67" t="s">
         <v>417</v>
       </c>
-      <c r="AQ67">
+      <c r="AS67">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>385</v>
       </c>
@@ -5759,32 +5782,32 @@
       <c r="M68" t="b">
         <v>1</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="AA68" t="s">
         <v>120</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AB68" t="s">
         <v>121</v>
       </c>
-      <c r="AA68">
+      <c r="AC68">
         <v>11</v>
       </c>
-      <c r="AI68" t="s">
+      <c r="AK68" t="s">
         <v>122</v>
       </c>
-      <c r="AJ68" t="s">
+      <c r="AL68" t="s">
         <v>123</v>
       </c>
-      <c r="AK68" t="s">
+      <c r="AM68" t="s">
         <v>124</v>
       </c>
-      <c r="AL68" t="s">
+      <c r="AN68" t="s">
         <v>125</v>
       </c>
-      <c r="AQ68">
+      <c r="AS68">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>813</v>
       </c>
@@ -5800,35 +5823,35 @@
       <c r="E69" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="AA69" t="s">
         <v>120</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AB69" t="s">
         <v>816</v>
       </c>
-      <c r="AA69">
+      <c r="AC69">
         <v>11</v>
       </c>
-      <c r="AI69" t="s">
+      <c r="AK69" t="s">
         <v>322</v>
       </c>
-      <c r="AJ69" t="s">
+      <c r="AL69" t="s">
         <v>123</v>
       </c>
-      <c r="AK69" t="s">
+      <c r="AM69" t="s">
         <v>124</v>
       </c>
-      <c r="AL69" t="s">
+      <c r="AN69" t="s">
         <v>125</v>
       </c>
-      <c r="AQ69">
+      <c r="AS69">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -5862,11 +5885,11 @@
       <c r="W71" t="b">
         <v>1</v>
       </c>
-      <c r="AQ71">
+      <c r="AS71">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>137</v>
       </c>
@@ -5900,11 +5923,11 @@
       <c r="W72" t="b">
         <v>1</v>
       </c>
-      <c r="AQ72">
+      <c r="AS72">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -5938,11 +5961,11 @@
       <c r="W73" t="b">
         <v>1</v>
       </c>
-      <c r="AQ73">
+      <c r="AS73">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -5976,19 +5999,19 @@
       <c r="W74" t="b">
         <v>1</v>
       </c>
-      <c r="AQ74">
+      <c r="AS74">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>730</v>
       </c>
@@ -6007,11 +6030,11 @@
       <c r="I77" t="s">
         <v>744</v>
       </c>
-      <c r="AQ77">
+      <c r="AS77">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>731</v>
       </c>
@@ -6030,11 +6053,11 @@
       <c r="I78" t="s">
         <v>744</v>
       </c>
-      <c r="AQ78">
+      <c r="AS78">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>732</v>
       </c>
@@ -6053,11 +6076,11 @@
       <c r="I79" t="s">
         <v>744</v>
       </c>
-      <c r="AQ79">
+      <c r="AS79">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>733</v>
       </c>
@@ -6076,11 +6099,11 @@
       <c r="I80" t="s">
         <v>744</v>
       </c>
-      <c r="AQ80">
+      <c r="AS80">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>734</v>
       </c>
@@ -6099,11 +6122,11 @@
       <c r="I81" t="s">
         <v>744</v>
       </c>
-      <c r="AQ81">
+      <c r="AS81">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>735</v>
       </c>
@@ -6122,11 +6145,11 @@
       <c r="I82" t="s">
         <v>744</v>
       </c>
-      <c r="AQ82">
+      <c r="AS82">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>736</v>
       </c>
@@ -6145,11 +6168,11 @@
       <c r="I83" t="s">
         <v>752</v>
       </c>
-      <c r="AQ83">
+      <c r="AS83">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>753</v>
       </c>
@@ -6168,11 +6191,11 @@
       <c r="I84" t="s">
         <v>752</v>
       </c>
-      <c r="AQ84">
+      <c r="AS84">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>737</v>
       </c>
@@ -6191,11 +6214,11 @@
       <c r="I85" t="s">
         <v>752</v>
       </c>
-      <c r="AQ85">
+      <c r="AS85">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>738</v>
       </c>
@@ -6214,11 +6237,11 @@
       <c r="I86" t="s">
         <v>752</v>
       </c>
-      <c r="AQ86">
+      <c r="AS86">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>739</v>
       </c>
@@ -6237,11 +6260,11 @@
       <c r="I87" t="s">
         <v>752</v>
       </c>
-      <c r="AQ87">
+      <c r="AS87">
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>740</v>
       </c>
@@ -6260,11 +6283,11 @@
       <c r="I88" t="s">
         <v>752</v>
       </c>
-      <c r="AQ88">
+      <c r="AS88">
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>741</v>
       </c>
@@ -6283,11 +6306,11 @@
       <c r="I89" t="s">
         <v>752</v>
       </c>
-      <c r="AQ89">
+      <c r="AS89">
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>742</v>
       </c>
@@ -6306,11 +6329,11 @@
       <c r="H90" t="s">
         <v>729</v>
       </c>
-      <c r="AQ90">
+      <c r="AS90">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>746</v>
       </c>
@@ -6329,11 +6352,11 @@
       <c r="H91" t="s">
         <v>729</v>
       </c>
-      <c r="AQ91">
+      <c r="AS91">
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>761</v>
       </c>
@@ -6352,11 +6375,11 @@
       <c r="H92" t="s">
         <v>714</v>
       </c>
-      <c r="AQ92">
+      <c r="AS92">
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>755</v>
       </c>
@@ -6384,11 +6407,11 @@
       <c r="R93" t="s">
         <v>757</v>
       </c>
-      <c r="AQ93">
+      <c r="AS93">
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>750</v>
       </c>
@@ -6416,11 +6439,11 @@
       <c r="R94" t="s">
         <v>757</v>
       </c>
-      <c r="AQ94">
+      <c r="AS94">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>751</v>
       </c>
@@ -6448,11 +6471,11 @@
       <c r="R95" t="s">
         <v>756</v>
       </c>
-      <c r="AQ95">
+      <c r="AS95">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>759</v>
       </c>
@@ -6480,11 +6503,11 @@
       <c r="R96" t="s">
         <v>756</v>
       </c>
-      <c r="AQ96">
+      <c r="AS96">
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>422</v>
       </c>
@@ -6512,11 +6535,11 @@
       <c r="R97" t="s">
         <v>417</v>
       </c>
-      <c r="AQ97">
+      <c r="AS97">
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>424</v>
       </c>
@@ -6544,11 +6567,11 @@
       <c r="R98" t="s">
         <v>417</v>
       </c>
-      <c r="AQ98">
+      <c r="AS98">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>423</v>
       </c>
@@ -6576,11 +6599,11 @@
       <c r="R99" t="s">
         <v>417</v>
       </c>
-      <c r="AQ99">
+      <c r="AS99">
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>426</v>
       </c>
@@ -6605,32 +6628,32 @@
       <c r="M100" t="b">
         <v>1</v>
       </c>
-      <c r="Y100" t="s">
+      <c r="AA100" t="s">
         <v>120</v>
       </c>
-      <c r="Z100" t="s">
+      <c r="AB100" t="s">
         <v>121</v>
       </c>
-      <c r="AA100">
+      <c r="AC100">
         <v>11</v>
       </c>
-      <c r="AI100" t="s">
+      <c r="AK100" t="s">
         <v>819</v>
       </c>
-      <c r="AJ100" t="s">
+      <c r="AL100" t="s">
         <v>123</v>
       </c>
-      <c r="AK100">
+      <c r="AM100">
         <v>2</v>
       </c>
-      <c r="AL100">
+      <c r="AN100">
         <v>2</v>
       </c>
-      <c r="AQ100">
+      <c r="AS100">
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>817</v>
       </c>
@@ -6646,32 +6669,32 @@
       <c r="E101" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="Y101" t="s">
+      <c r="AA101" t="s">
         <v>120</v>
       </c>
-      <c r="Z101" t="s">
+      <c r="AB101" t="s">
         <v>816</v>
       </c>
-      <c r="AA101">
+      <c r="AC101">
         <v>11</v>
       </c>
-      <c r="AI101" t="s">
+      <c r="AK101" t="s">
         <v>819</v>
       </c>
-      <c r="AJ101" t="s">
+      <c r="AL101" t="s">
         <v>123</v>
       </c>
-      <c r="AK101">
+      <c r="AM101">
         <v>2</v>
       </c>
-      <c r="AL101">
+      <c r="AN101">
         <v>2</v>
       </c>
-      <c r="AQ101">
+      <c r="AS101">
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>820</v>
       </c>
@@ -6687,32 +6710,32 @@
       <c r="E102" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="Y102" t="s">
+      <c r="AA102" t="s">
         <v>828</v>
       </c>
-      <c r="Z102" t="s">
+      <c r="AB102" t="s">
         <v>816</v>
       </c>
-      <c r="AA102">
+      <c r="AC102">
         <v>11</v>
       </c>
-      <c r="AI102" t="s">
+      <c r="AK102" t="s">
         <v>819</v>
       </c>
-      <c r="AJ102" t="s">
+      <c r="AL102" t="s">
         <v>123</v>
       </c>
-      <c r="AK102">
+      <c r="AM102">
         <v>2</v>
       </c>
-      <c r="AL102">
+      <c r="AN102">
         <v>2</v>
       </c>
-      <c r="AQ102">
+      <c r="AS102">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>823</v>
       </c>
@@ -6728,32 +6751,32 @@
       <c r="E103" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="Y103" t="s">
+      <c r="AA103" t="s">
         <v>827</v>
       </c>
-      <c r="Z103" t="s">
+      <c r="AB103" t="s">
         <v>816</v>
       </c>
-      <c r="AA103">
+      <c r="AC103">
         <v>11</v>
       </c>
-      <c r="AI103" t="s">
+      <c r="AK103" t="s">
         <v>819</v>
       </c>
-      <c r="AJ103" t="s">
+      <c r="AL103" t="s">
         <v>123</v>
       </c>
-      <c r="AK103">
+      <c r="AM103">
         <v>2</v>
       </c>
-      <c r="AL103">
+      <c r="AN103">
         <v>2</v>
       </c>
-      <c r="AQ103">
+      <c r="AS103">
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>822</v>
       </c>
@@ -6769,35 +6792,35 @@
       <c r="E104" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="Y104" t="s">
+      <c r="AA104" t="s">
         <v>826</v>
       </c>
-      <c r="Z104" t="s">
+      <c r="AB104" t="s">
         <v>816</v>
       </c>
-      <c r="AA104">
+      <c r="AC104">
         <v>11</v>
       </c>
-      <c r="AB104" t="s">
+      <c r="AD104" t="s">
         <v>829</v>
       </c>
-      <c r="AI104" t="s">
+      <c r="AK104" t="s">
         <v>819</v>
       </c>
-      <c r="AJ104" t="s">
+      <c r="AL104" t="s">
         <v>123</v>
       </c>
-      <c r="AK104">
+      <c r="AM104">
         <v>2</v>
       </c>
-      <c r="AL104">
+      <c r="AN104">
         <v>2</v>
       </c>
-      <c r="AQ104">
+      <c r="AS104">
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>719</v>
       </c>
@@ -6828,11 +6851,11 @@
       <c r="U105" t="s">
         <v>159</v>
       </c>
-      <c r="AQ105">
+      <c r="AS105">
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>726</v>
       </c>
@@ -6863,11 +6886,11 @@
       <c r="U106" t="s">
         <v>159</v>
       </c>
-      <c r="AQ106">
+      <c r="AS106">
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>724</v>
       </c>
@@ -6892,32 +6915,32 @@
       <c r="M107" t="b">
         <v>1</v>
       </c>
-      <c r="Y107" t="s">
+      <c r="AA107" t="s">
         <v>120</v>
       </c>
-      <c r="Z107" t="s">
+      <c r="AB107" t="s">
         <v>121</v>
       </c>
-      <c r="AA107">
+      <c r="AC107">
         <v>11</v>
       </c>
-      <c r="AI107" t="s">
+      <c r="AK107" t="s">
         <v>819</v>
       </c>
-      <c r="AJ107" t="s">
+      <c r="AL107" t="s">
         <v>123</v>
       </c>
-      <c r="AK107">
+      <c r="AM107">
         <v>2</v>
       </c>
-      <c r="AL107">
+      <c r="AN107">
         <v>2</v>
       </c>
-      <c r="AQ107">
+      <c r="AS107">
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>722</v>
       </c>
@@ -6948,11 +6971,11 @@
       <c r="U108" t="s">
         <v>159</v>
       </c>
-      <c r="AQ108">
+      <c r="AS108">
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>727</v>
       </c>
@@ -6983,11 +7006,11 @@
       <c r="U109" t="s">
         <v>159</v>
       </c>
-      <c r="AQ109">
+      <c r="AS109">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>725</v>
       </c>
@@ -7012,35 +7035,35 @@
       <c r="M110" t="b">
         <v>1</v>
       </c>
-      <c r="Y110" t="s">
+      <c r="AA110" t="s">
         <v>120</v>
       </c>
-      <c r="Z110" t="s">
+      <c r="AB110" t="s">
         <v>121</v>
       </c>
-      <c r="AA110">
+      <c r="AC110">
         <v>11</v>
       </c>
-      <c r="AI110" t="s">
+      <c r="AK110" t="s">
         <v>819</v>
       </c>
-      <c r="AJ110" t="s">
+      <c r="AL110" t="s">
         <v>123</v>
       </c>
-      <c r="AK110">
+      <c r="AM110">
         <v>2</v>
       </c>
-      <c r="AL110">
+      <c r="AN110">
         <v>2</v>
       </c>
-      <c r="AQ110">
+      <c r="AS110">
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>809</v>
       </c>
@@ -7062,14 +7085,14 @@
       <c r="J112" t="s">
         <v>43</v>
       </c>
-      <c r="AO112" t="s">
+      <c r="AQ112" t="s">
         <v>812</v>
       </c>
-      <c r="AQ112">
+      <c r="AS112">
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>810</v>
       </c>
@@ -7091,14 +7114,14 @@
       <c r="J113" t="s">
         <v>43</v>
       </c>
-      <c r="AO113" t="s">
+      <c r="AQ113" t="s">
         <v>812</v>
       </c>
-      <c r="AQ113">
+      <c r="AS113">
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>811</v>
       </c>
@@ -7120,14 +7143,14 @@
       <c r="J114" t="s">
         <v>43</v>
       </c>
-      <c r="AO114" t="s">
+      <c r="AQ114" t="s">
         <v>812</v>
       </c>
-      <c r="AQ114">
+      <c r="AS114">
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>804</v>
       </c>
@@ -7155,14 +7178,14 @@
       <c r="R115" t="s">
         <v>623</v>
       </c>
-      <c r="AO115" t="s">
+      <c r="AQ115" t="s">
         <v>812</v>
       </c>
-      <c r="AQ115">
+      <c r="AS115">
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>805</v>
       </c>
@@ -7190,14 +7213,14 @@
       <c r="R116" t="s">
         <v>623</v>
       </c>
-      <c r="AO116" t="s">
+      <c r="AQ116" t="s">
         <v>812</v>
       </c>
-      <c r="AQ116">
+      <c r="AS116">
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>806</v>
       </c>
@@ -7225,28 +7248,28 @@
       <c r="R117" t="s">
         <v>623</v>
       </c>
-      <c r="AO117" t="s">
+      <c r="AQ117" t="s">
         <v>812</v>
       </c>
-      <c r="AQ117">
+      <c r="AS117">
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:43" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>902</v>
       </c>
@@ -7281,7 +7304,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="123" spans="1:43" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>901</v>
       </c>
@@ -7316,7 +7339,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="124" spans="1:43" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>881</v>
       </c>
@@ -7351,7 +7374,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="125" spans="1:43" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>892</v>
       </c>
@@ -7386,7 +7409,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="126" spans="1:43" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>893</v>
       </c>
@@ -7421,7 +7444,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="127" spans="1:43" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>877</v>
       </c>
@@ -7456,21 +7479,21 @@
         <v>899</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>906</v>
       </c>
@@ -7501,11 +7524,11 @@
       <c r="U132" t="s">
         <v>898</v>
       </c>
-      <c r="AO132" t="s">
+      <c r="AQ132" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="133" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>907</v>
       </c>
@@ -7536,11 +7559,11 @@
       <c r="U133" t="s">
         <v>898</v>
       </c>
-      <c r="AO133" t="s">
+      <c r="AQ133" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="134" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:43" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>908</v>
       </c>
@@ -7571,11 +7594,11 @@
       <c r="U134" t="s">
         <v>898</v>
       </c>
-      <c r="AO134" t="s">
+      <c r="AQ134" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="135" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>910</v>
       </c>
@@ -7606,11 +7629,11 @@
       <c r="U135" t="s">
         <v>898</v>
       </c>
-      <c r="AO135" t="s">
+      <c r="AQ135" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="136" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:43" ht="75" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>909</v>
       </c>
@@ -7641,14 +7664,14 @@
       <c r="U136" t="s">
         <v>898</v>
       </c>
-      <c r="AN136" t="s">
+      <c r="AP136" t="s">
         <v>670</v>
       </c>
-      <c r="AO136" t="s">
+      <c r="AQ136" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="137" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>911</v>
       </c>
@@ -7682,11 +7705,11 @@
       <c r="U137" t="s">
         <v>898</v>
       </c>
-      <c r="AO137" t="s">
+      <c r="AQ137" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="138" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>912</v>
       </c>
@@ -7720,11 +7743,11 @@
       <c r="U138" t="s">
         <v>898</v>
       </c>
-      <c r="AO138" t="s">
+      <c r="AQ138" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="139" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>913</v>
       </c>
@@ -7758,11 +7781,11 @@
       <c r="U139" t="s">
         <v>898</v>
       </c>
-      <c r="AO139" t="s">
+      <c r="AQ139" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="140" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>894</v>
       </c>
@@ -7796,11 +7819,11 @@
       <c r="U140" t="s">
         <v>898</v>
       </c>
-      <c r="AO140" t="s">
+      <c r="AQ140" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="141" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>878</v>
       </c>
@@ -7834,17 +7857,17 @@
       <c r="U141" t="s">
         <v>898</v>
       </c>
-      <c r="AO141" t="s">
+      <c r="AQ141" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>846</v>
       </c>
@@ -8817,7 +8840,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>456</v>
       </c>
@@ -8849,7 +8872,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>457</v>
       </c>
@@ -8884,10 +8907,10 @@
         <v>573</v>
       </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:42" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>427</v>
       </c>
@@ -8919,7 +8942,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>688</v>
       </c>
@@ -8954,7 +8977,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>689</v>
       </c>
@@ -8989,7 +9012,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>428</v>
       </c>
@@ -9021,7 +9044,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>435</v>
       </c>
@@ -9053,7 +9076,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>436</v>
       </c>
@@ -9085,7 +9108,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>437</v>
       </c>
@@ -9117,7 +9140,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>438</v>
       </c>
@@ -9152,18 +9175,18 @@
         <v>520</v>
       </c>
     </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>924</v>
       </c>
@@ -9194,11 +9217,11 @@
       <c r="U191" t="s">
         <v>159</v>
       </c>
-      <c r="AN191" t="s">
+      <c r="AP191" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="192" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:42" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>925</v>
       </c>
@@ -9227,7 +9250,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="193" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:42" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>927</v>
       </c>
@@ -9256,7 +9279,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="194" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>928</v>
       </c>
@@ -9285,7 +9308,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="195" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:42" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>930</v>
       </c>
@@ -9314,7 +9337,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="196" spans="1:40" ht="75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:42" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>931</v>
       </c>
@@ -9342,11 +9365,11 @@
       <c r="R196" t="s">
         <v>874</v>
       </c>
-      <c r="AN196" t="s">
+      <c r="AP196" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>482</v>
       </c>
@@ -9378,10 +9401,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:40" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:42" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>486</v>
       </c>
@@ -9413,7 +9436,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>487</v>
       </c>
@@ -9445,7 +9468,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>662</v>
       </c>
@@ -9477,10 +9500,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:40" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>494</v>
       </c>
@@ -9512,7 +9535,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>495</v>
       </c>
@@ -9544,7 +9567,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>496</v>
       </c>
@@ -9576,7 +9599,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>497</v>
       </c>
@@ -9608,7 +9631,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>498</v>
       </c>
@@ -9640,7 +9663,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A208"/>
     </row>
     <row r="209" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -10521,7 +10544,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="241" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>693</v>
       </c>
@@ -10553,7 +10576,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="242" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>695</v>
       </c>
@@ -10588,7 +10611,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="243" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>696</v>
       </c>
@@ -10623,7 +10646,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="244" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>469</v>
       </c>
@@ -10652,7 +10675,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="245" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>468</v>
       </c>
@@ -10681,7 +10704,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="246" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>701</v>
       </c>
@@ -10713,7 +10736,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="247" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>702</v>
       </c>
@@ -10745,24 +10768,24 @@
         <v>159</v>
       </c>
     </row>
-    <row r="248" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="253" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>951</v>
       </c>
@@ -10790,11 +10813,11 @@
       <c r="R253" t="s">
         <v>467</v>
       </c>
-      <c r="AO253" s="5" t="s">
+      <c r="AQ253" s="5" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="254" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>788</v>
       </c>
@@ -10828,11 +10851,11 @@
       <c r="U254" t="s">
         <v>159</v>
       </c>
-      <c r="AO254" t="s">
+      <c r="AQ254" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="255" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>950</v>
       </c>
@@ -10860,11 +10883,11 @@
       <c r="R255" t="s">
         <v>954</v>
       </c>
-      <c r="AO255" t="s">
+      <c r="AQ255" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="256" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>155</v>
       </c>
@@ -10892,11 +10915,11 @@
       <c r="R256" t="s">
         <v>467</v>
       </c>
-      <c r="AO256" t="s">
+      <c r="AQ256" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="257" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>387</v>
       </c>
@@ -10924,11 +10947,11 @@
       <c r="R257" t="s">
         <v>467</v>
       </c>
-      <c r="AO257" t="s">
+      <c r="AQ257" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="258" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>464</v>
       </c>
@@ -10953,11 +10976,11 @@
       <c r="R258" t="s">
         <v>467</v>
       </c>
-      <c r="AO258" t="s">
+      <c r="AQ258" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="259" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>465</v>
       </c>
@@ -10982,11 +11005,11 @@
       <c r="R259" t="s">
         <v>467</v>
       </c>
-      <c r="AO259" t="s">
+      <c r="AQ259" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="260" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>466</v>
       </c>
@@ -11014,11 +11037,11 @@
       <c r="T260" t="s">
         <v>520</v>
       </c>
-      <c r="AO260" t="s">
+      <c r="AQ260" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="261" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>985</v>
       </c>
@@ -11049,11 +11072,11 @@
       <c r="U261" t="s">
         <v>167</v>
       </c>
-      <c r="AO261" t="s">
+      <c r="AQ261" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="262" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>986</v>
       </c>
@@ -11084,11 +11107,11 @@
       <c r="U262" t="s">
         <v>168</v>
       </c>
-      <c r="AO262" t="s">
+      <c r="AQ262" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="263" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>990</v>
       </c>
@@ -11116,11 +11139,11 @@
       <c r="R263" t="s">
         <v>771</v>
       </c>
-      <c r="AO263" t="s">
+      <c r="AQ263" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="264" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>991</v>
       </c>
@@ -11154,11 +11177,11 @@
       <c r="U264" t="s">
         <v>159</v>
       </c>
-      <c r="AO264" t="s">
+      <c r="AQ264" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="265" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>992</v>
       </c>
@@ -11189,11 +11212,11 @@
       <c r="S265" t="s">
         <v>771</v>
       </c>
-      <c r="AO265" t="s">
+      <c r="AQ265" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="266" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>391</v>
       </c>
@@ -11224,11 +11247,11 @@
       <c r="U266" t="s">
         <v>168</v>
       </c>
-      <c r="AO266" t="s">
+      <c r="AQ266" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="267" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>392</v>
       </c>
@@ -11259,11 +11282,11 @@
       <c r="U267" t="s">
         <v>168</v>
       </c>
-      <c r="AO267" t="s">
+      <c r="AQ267" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="268" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>458</v>
       </c>
@@ -11291,11 +11314,11 @@
       <c r="U268" t="s">
         <v>168</v>
       </c>
-      <c r="AO268" t="s">
+      <c r="AQ268" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="269" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>459</v>
       </c>
@@ -11323,11 +11346,11 @@
       <c r="U269" t="s">
         <v>168</v>
       </c>
-      <c r="AO269" t="s">
+      <c r="AQ269" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="270" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>460</v>
       </c>
@@ -11358,22 +11381,22 @@
       <c r="U270" t="s">
         <v>168</v>
       </c>
-      <c r="AO270" t="s">
+      <c r="AQ270" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="271" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="273" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:41" ht="90" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:43" ht="90" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>869</v>
       </c>
@@ -11404,11 +11427,11 @@
       <c r="S274" t="s">
         <v>874</v>
       </c>
-      <c r="AO274" t="s">
+      <c r="AQ274" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="275" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:43" ht="75" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>870</v>
       </c>
@@ -11439,11 +11462,11 @@
       <c r="S275" t="s">
         <v>935</v>
       </c>
-      <c r="AO275" t="s">
+      <c r="AQ275" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="276" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:43" ht="75" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>871</v>
       </c>
@@ -11474,11 +11497,11 @@
       <c r="S276" t="s">
         <v>934</v>
       </c>
-      <c r="AO276" t="s">
+      <c r="AQ276" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="277" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:43" ht="75" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>872</v>
       </c>
@@ -11509,11 +11532,11 @@
       <c r="S277" t="s">
         <v>933</v>
       </c>
-      <c r="AO277" t="s">
+      <c r="AQ277" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="278" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:43" ht="75" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>843</v>
       </c>
@@ -11544,11 +11567,11 @@
       <c r="S278" t="s">
         <v>900</v>
       </c>
-      <c r="AO278" t="s">
+      <c r="AQ278" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="279" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:43" ht="75" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>858</v>
       </c>
@@ -11579,19 +11602,19 @@
       <c r="S279" t="s">
         <v>905</v>
       </c>
-      <c r="AO279" t="s">
+      <c r="AQ279" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="280" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A280"/>
     </row>
-    <row r="281" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="282" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:43" ht="75" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>861</v>
       </c>
@@ -11619,11 +11642,11 @@
       <c r="R282" t="s">
         <v>874</v>
       </c>
-      <c r="AO282" t="s">
+      <c r="AQ282" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="283" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:43" ht="75" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>862</v>
       </c>
@@ -11651,11 +11674,11 @@
       <c r="R283" t="s">
         <v>874</v>
       </c>
-      <c r="AO283" t="s">
+      <c r="AQ283" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="284" spans="1:41" ht="90" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:43" ht="90" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>863</v>
       </c>
@@ -11683,11 +11706,11 @@
       <c r="R284" t="s">
         <v>874</v>
       </c>
-      <c r="AO284" t="s">
+      <c r="AQ284" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="285" spans="1:41" ht="90" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:43" ht="90" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>864</v>
       </c>
@@ -11715,11 +11738,11 @@
       <c r="R285" t="s">
         <v>874</v>
       </c>
-      <c r="AO285" t="s">
+      <c r="AQ285" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="286" spans="1:41" ht="105" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:43" ht="105" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>865</v>
       </c>
@@ -11747,14 +11770,14 @@
       <c r="R286" t="s">
         <v>874</v>
       </c>
-      <c r="AN286" t="s">
+      <c r="AP286" t="s">
         <v>670</v>
       </c>
-      <c r="AO286" t="s">
+      <c r="AQ286" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="287" spans="1:41" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:43" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>971</v>
       </c>
@@ -11782,14 +11805,14 @@
       <c r="R287" t="s">
         <v>874</v>
       </c>
-      <c r="AN287" t="s">
+      <c r="AP287" t="s">
         <v>670</v>
       </c>
-      <c r="AO287" t="s">
+      <c r="AQ287" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="288" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>866</v>
       </c>
@@ -11820,11 +11843,11 @@
       <c r="T288" t="s">
         <v>117</v>
       </c>
-      <c r="AO288" t="s">
+      <c r="AQ288" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="289" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>970</v>
       </c>
@@ -11855,11 +11878,11 @@
       <c r="T289" t="s">
         <v>117</v>
       </c>
-      <c r="AO289" t="s">
+      <c r="AQ289" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="290" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>867</v>
       </c>
@@ -11890,11 +11913,11 @@
       <c r="T290" t="s">
         <v>499</v>
       </c>
-      <c r="AO290" t="s">
+      <c r="AQ290" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="291" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>965</v>
       </c>
@@ -11925,11 +11948,11 @@
       <c r="T291" t="s">
         <v>499</v>
       </c>
-      <c r="AO291" t="s">
+      <c r="AQ291" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="292" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>868</v>
       </c>
@@ -11960,11 +11983,11 @@
       <c r="T292" t="s">
         <v>511</v>
       </c>
-      <c r="AO292" t="s">
+      <c r="AQ292" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="293" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>969</v>
       </c>
@@ -11995,11 +12018,11 @@
       <c r="T293" t="s">
         <v>511</v>
       </c>
-      <c r="AO293" t="s">
+      <c r="AQ293" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="294" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>848</v>
       </c>
@@ -12030,11 +12053,11 @@
       <c r="T294" t="s">
         <v>573</v>
       </c>
-      <c r="AO294" t="s">
+      <c r="AQ294" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="295" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>968</v>
       </c>
@@ -12065,11 +12088,11 @@
       <c r="T295" t="s">
         <v>573</v>
       </c>
-      <c r="AO295" t="s">
+      <c r="AQ295" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="296" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>857</v>
       </c>
@@ -12100,11 +12123,11 @@
       <c r="T296" t="s">
         <v>520</v>
       </c>
-      <c r="AO296" t="s">
+      <c r="AQ296" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="297" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>941</v>
       </c>
@@ -12135,19 +12158,19 @@
       <c r="T297" t="s">
         <v>520</v>
       </c>
-      <c r="AO297" t="s">
+      <c r="AQ297" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="298" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A298"/>
     </row>
-    <row r="299" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="300" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1005</v>
       </c>
@@ -12169,11 +12192,11 @@
       <c r="J300" t="s">
         <v>322</v>
       </c>
-      <c r="AO300" t="s">
+      <c r="AQ300" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="301" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1006</v>
       </c>
@@ -12195,11 +12218,11 @@
       <c r="J301" t="s">
         <v>322</v>
       </c>
-      <c r="AO301" t="s">
+      <c r="AQ301" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="302" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1007</v>
       </c>
@@ -12221,11 +12244,11 @@
       <c r="J302" t="s">
         <v>322</v>
       </c>
-      <c r="AO302" t="s">
+      <c r="AQ302" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="303" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1008</v>
       </c>
@@ -12247,11 +12270,11 @@
       <c r="J303" t="s">
         <v>340</v>
       </c>
-      <c r="AO303" t="s">
+      <c r="AQ303" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="304" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>830</v>
       </c>
@@ -12273,11 +12296,11 @@
       <c r="J304" t="s">
         <v>340</v>
       </c>
-      <c r="AO304" t="s">
+      <c r="AQ304" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="305" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>176</v>
       </c>
@@ -12299,35 +12322,35 @@
       <c r="V305" t="s">
         <v>180</v>
       </c>
-      <c r="Y305" t="s">
+      <c r="AA305" t="s">
         <v>181</v>
       </c>
-      <c r="Z305" t="s">
+      <c r="AB305" t="s">
         <v>121</v>
       </c>
-      <c r="AA305" t="s">
+      <c r="AC305" t="s">
         <v>182</v>
       </c>
-      <c r="AB305" t="s">
+      <c r="AD305" t="s">
         <v>183</v>
       </c>
-      <c r="AC305" t="s">
+      <c r="AE305" t="s">
         <v>184</v>
       </c>
-      <c r="AD305" t="s">
+      <c r="AF305" t="s">
         <v>135</v>
       </c>
-      <c r="AI305" t="s">
+      <c r="AK305" t="s">
         <v>185</v>
       </c>
-      <c r="AJ305" t="s">
+      <c r="AL305" t="s">
         <v>186</v>
       </c>
-      <c r="AK305" t="s">
+      <c r="AM305" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="306" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>188</v>
       </c>
@@ -12349,35 +12372,35 @@
       <c r="V306" t="s">
         <v>180</v>
       </c>
-      <c r="Y306" t="s">
+      <c r="AA306" t="s">
         <v>181</v>
       </c>
-      <c r="Z306" t="s">
+      <c r="AB306" t="s">
         <v>121</v>
       </c>
-      <c r="AA306" t="s">
+      <c r="AC306" t="s">
         <v>182</v>
       </c>
-      <c r="AB306" t="s">
+      <c r="AD306" t="s">
         <v>183</v>
       </c>
-      <c r="AC306" t="s">
+      <c r="AE306" t="s">
         <v>184</v>
       </c>
-      <c r="AD306" t="s">
+      <c r="AF306" t="s">
         <v>135</v>
       </c>
-      <c r="AI306" t="s">
+      <c r="AK306" t="s">
         <v>185</v>
       </c>
-      <c r="AJ306" t="s">
+      <c r="AL306" t="s">
         <v>186</v>
       </c>
-      <c r="AK306" t="s">
+      <c r="AM306" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="307" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>190</v>
       </c>
@@ -12400,7 +12423,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="308" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>193</v>
       </c>
@@ -12423,7 +12446,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="309" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>194</v>
       </c>
@@ -12446,7 +12469,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="310" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>198</v>
       </c>
@@ -12472,7 +12495,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="311" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>202</v>
       </c>
@@ -12498,7 +12521,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="312" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>204</v>
       </c>
@@ -12521,7 +12544,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="313" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>207</v>
       </c>
@@ -12544,7 +12567,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="314" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>209</v>
       </c>
@@ -12569,35 +12592,35 @@
       <c r="W314" t="b">
         <v>1</v>
       </c>
-      <c r="Y314" t="s">
+      <c r="AA314" t="s">
         <v>181</v>
       </c>
-      <c r="Z314" t="s">
+      <c r="AB314" t="s">
         <v>121</v>
       </c>
-      <c r="AA314" t="s">
+      <c r="AC314" t="s">
         <v>182</v>
       </c>
-      <c r="AB314" t="s">
+      <c r="AD314" t="s">
         <v>212</v>
       </c>
-      <c r="AC314" t="s">
+      <c r="AE314" t="s">
         <v>184</v>
       </c>
-      <c r="AD314" t="s">
+      <c r="AF314" t="s">
         <v>135</v>
       </c>
-      <c r="AI314" t="s">
+      <c r="AK314" t="s">
         <v>185</v>
       </c>
-      <c r="AJ314" t="s">
+      <c r="AL314" t="s">
         <v>186</v>
       </c>
-      <c r="AK314" t="s">
+      <c r="AM314" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="315" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>213</v>
       </c>
@@ -12622,35 +12645,35 @@
       <c r="W315" t="b">
         <v>1</v>
       </c>
-      <c r="Y315" t="s">
+      <c r="AA315" t="s">
         <v>181</v>
       </c>
-      <c r="Z315" t="s">
+      <c r="AB315" t="s">
         <v>121</v>
       </c>
-      <c r="AA315" t="s">
+      <c r="AC315" t="s">
         <v>182</v>
       </c>
-      <c r="AB315" t="s">
+      <c r="AD315" t="s">
         <v>212</v>
       </c>
-      <c r="AC315" t="s">
+      <c r="AE315" t="s">
         <v>184</v>
       </c>
-      <c r="AD315" t="s">
+      <c r="AF315" t="s">
         <v>135</v>
       </c>
-      <c r="AI315" t="s">
+      <c r="AK315" t="s">
         <v>185</v>
       </c>
-      <c r="AJ315" t="s">
+      <c r="AL315" t="s">
         <v>186</v>
       </c>
-      <c r="AK315" t="s">
+      <c r="AM315" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="316" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>215</v>
       </c>
@@ -12672,35 +12695,35 @@
       <c r="V316" t="s">
         <v>216</v>
       </c>
-      <c r="Y316" t="s">
+      <c r="AA316" t="s">
         <v>181</v>
       </c>
-      <c r="Z316" t="s">
+      <c r="AB316" t="s">
         <v>121</v>
       </c>
-      <c r="AA316" t="s">
+      <c r="AC316" t="s">
         <v>182</v>
       </c>
-      <c r="AB316" t="s">
+      <c r="AD316" t="s">
         <v>212</v>
       </c>
-      <c r="AC316" t="s">
+      <c r="AE316" t="s">
         <v>184</v>
       </c>
-      <c r="AD316" t="s">
+      <c r="AF316" t="s">
         <v>135</v>
       </c>
-      <c r="AI316" t="s">
+      <c r="AK316" t="s">
         <v>185</v>
       </c>
-      <c r="AJ316" t="s">
+      <c r="AL316" t="s">
         <v>186</v>
       </c>
-      <c r="AK316" t="s">
+      <c r="AM316" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="317" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>217</v>
       </c>
@@ -12722,35 +12745,35 @@
       <c r="V317" t="s">
         <v>216</v>
       </c>
-      <c r="Y317" t="s">
+      <c r="AA317" t="s">
         <v>181</v>
       </c>
-      <c r="Z317" t="s">
+      <c r="AB317" t="s">
         <v>121</v>
       </c>
-      <c r="AA317" t="s">
+      <c r="AC317" t="s">
         <v>182</v>
       </c>
-      <c r="AB317" t="s">
+      <c r="AD317" t="s">
         <v>212</v>
       </c>
-      <c r="AC317" t="s">
+      <c r="AE317" t="s">
         <v>184</v>
       </c>
-      <c r="AD317" t="s">
+      <c r="AF317" t="s">
         <v>135</v>
       </c>
-      <c r="AI317" t="s">
+      <c r="AK317" t="s">
         <v>185</v>
       </c>
-      <c r="AJ317" t="s">
+      <c r="AL317" t="s">
         <v>186</v>
       </c>
-      <c r="AK317" t="s">
+      <c r="AM317" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="318" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>218</v>
       </c>
@@ -12773,7 +12796,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="319" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>222</v>
       </c>
@@ -12796,7 +12819,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="320" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>223</v>
       </c>
@@ -13215,12 +13238,12 @@
     <row r="336" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A336"/>
     </row>
-    <row r="337" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="338" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>268</v>
       </c>
@@ -13239,35 +13262,35 @@
       <c r="V338" t="s">
         <v>271</v>
       </c>
-      <c r="Y338" t="s">
+      <c r="AA338" t="s">
         <v>272</v>
       </c>
-      <c r="Z338" t="s">
+      <c r="AB338" t="s">
         <v>121</v>
       </c>
-      <c r="AA338" t="s">
+      <c r="AC338" t="s">
         <v>182</v>
       </c>
-      <c r="AB338" t="s">
+      <c r="AD338" t="s">
         <v>183</v>
       </c>
-      <c r="AC338" t="s">
+      <c r="AE338" t="s">
         <v>184</v>
       </c>
-      <c r="AD338" t="s">
+      <c r="AF338" t="s">
         <v>135</v>
       </c>
-      <c r="AI338" t="s">
+      <c r="AK338" t="s">
         <v>185</v>
       </c>
-      <c r="AJ338" t="s">
+      <c r="AL338" t="s">
         <v>186</v>
       </c>
-      <c r="AK338" t="s">
+      <c r="AM338" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="339" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>273</v>
       </c>
@@ -13286,35 +13309,35 @@
       <c r="V339" t="s">
         <v>275</v>
       </c>
-      <c r="Y339" t="s">
+      <c r="AA339" t="s">
         <v>272</v>
       </c>
-      <c r="Z339" t="s">
+      <c r="AB339" t="s">
         <v>121</v>
       </c>
-      <c r="AA339" t="s">
+      <c r="AC339" t="s">
         <v>182</v>
       </c>
-      <c r="AB339" t="s">
+      <c r="AD339" t="s">
         <v>183</v>
       </c>
-      <c r="AC339" t="s">
+      <c r="AE339" t="s">
         <v>184</v>
       </c>
-      <c r="AD339" t="s">
+      <c r="AF339" t="s">
         <v>135</v>
       </c>
-      <c r="AI339" t="s">
+      <c r="AK339" t="s">
         <v>185</v>
       </c>
-      <c r="AJ339" t="s">
+      <c r="AL339" t="s">
         <v>186</v>
       </c>
-      <c r="AK339" t="s">
+      <c r="AM339" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="340" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>276</v>
       </c>
@@ -13333,35 +13356,35 @@
       <c r="V340" t="s">
         <v>278</v>
       </c>
-      <c r="Y340" t="s">
+      <c r="AA340" t="s">
         <v>272</v>
       </c>
-      <c r="Z340" t="s">
+      <c r="AB340" t="s">
         <v>121</v>
       </c>
-      <c r="AA340" t="s">
+      <c r="AC340" t="s">
         <v>182</v>
       </c>
-      <c r="AB340" t="s">
+      <c r="AD340" t="s">
         <v>183</v>
       </c>
-      <c r="AC340" t="s">
+      <c r="AE340" t="s">
         <v>184</v>
       </c>
-      <c r="AD340" t="s">
+      <c r="AF340" t="s">
         <v>135</v>
       </c>
-      <c r="AI340" t="s">
+      <c r="AK340" t="s">
         <v>185</v>
       </c>
-      <c r="AJ340" t="s">
+      <c r="AL340" t="s">
         <v>186</v>
       </c>
-      <c r="AK340" t="s">
+      <c r="AM340" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="341" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>279</v>
       </c>
@@ -13384,7 +13407,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="342" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>282</v>
       </c>
@@ -13407,7 +13430,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="343" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>285</v>
       </c>
@@ -13430,7 +13453,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="344" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>288</v>
       </c>
@@ -13453,7 +13476,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="345" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>716</v>
       </c>
@@ -13476,7 +13499,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="346" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>586</v>
       </c>
@@ -13502,7 +13525,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="347" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>587</v>
       </c>
@@ -13528,7 +13551,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="348" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>293</v>
       </c>
@@ -13551,7 +13574,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="349" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>296</v>
       </c>
@@ -13574,7 +13597,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="350" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>299</v>
       </c>
@@ -13597,7 +13620,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="351" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>302</v>
       </c>
@@ -13620,7 +13643,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="352" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>305</v>
       </c>
@@ -14077,7 +14100,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="369" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>619</v>
       </c>
@@ -14100,7 +14123,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="370" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>614</v>
       </c>
@@ -14129,7 +14152,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="371" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>615</v>
       </c>
@@ -14158,7 +14181,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="372" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>764</v>
       </c>
@@ -14187,7 +14210,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="373" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>766</v>
       </c>
@@ -14219,7 +14242,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="374" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>328</v>
       </c>
@@ -14242,7 +14265,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="375" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>332</v>
       </c>
@@ -14265,7 +14288,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="376" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>334</v>
       </c>
@@ -14288,7 +14311,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="377" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>336</v>
       </c>
@@ -14311,15 +14334,15 @@
         <v>240</v>
       </c>
     </row>
-    <row r="378" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A378"/>
     </row>
-    <row r="379" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="380" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>522</v>
       </c>
@@ -14347,35 +14370,44 @@
       <c r="N380" t="s">
         <v>337</v>
       </c>
+      <c r="V380" t="s">
+        <v>1059</v>
+      </c>
       <c r="Y380" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Z380" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AA380" t="s">
         <v>338</v>
       </c>
-      <c r="Z380" t="s">
+      <c r="AB380" t="s">
         <v>121</v>
       </c>
-      <c r="AA380">
+      <c r="AC380">
         <v>12</v>
       </c>
-      <c r="AD380" t="s">
+      <c r="AF380" t="s">
         <v>179</v>
       </c>
-      <c r="AG380" t="s">
+      <c r="AI380" t="s">
         <v>339</v>
       </c>
-      <c r="AI380" t="s">
+      <c r="AK380" t="s">
         <v>123</v>
       </c>
-      <c r="AJ380" t="s">
+      <c r="AL380" t="s">
         <v>340</v>
       </c>
-      <c r="AK380" t="s">
+      <c r="AM380" t="s">
         <v>124</v>
       </c>
-      <c r="AL380" t="s">
+      <c r="AN380" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="381" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>523</v>
       </c>
@@ -14403,35 +14435,44 @@
       <c r="N381" t="s">
         <v>337</v>
       </c>
+      <c r="V381" t="s">
+        <v>1059</v>
+      </c>
       <c r="Y381" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Z381" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AA381" t="s">
         <v>528</v>
       </c>
-      <c r="Z381" t="s">
+      <c r="AB381" t="s">
         <v>121</v>
       </c>
-      <c r="AA381">
+      <c r="AC381">
         <v>12</v>
       </c>
-      <c r="AD381" t="s">
+      <c r="AF381" t="s">
         <v>179</v>
       </c>
-      <c r="AG381" t="s">
+      <c r="AI381" t="s">
         <v>339</v>
       </c>
-      <c r="AI381" t="s">
+      <c r="AK381" t="s">
         <v>123</v>
       </c>
-      <c r="AJ381" t="s">
+      <c r="AL381" t="s">
         <v>340</v>
       </c>
-      <c r="AK381" t="s">
+      <c r="AM381" t="s">
         <v>124</v>
       </c>
-      <c r="AL381" t="s">
+      <c r="AN381" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="382" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>524</v>
       </c>
@@ -14459,35 +14500,44 @@
       <c r="N382" t="s">
         <v>337</v>
       </c>
+      <c r="V382" t="s">
+        <v>1059</v>
+      </c>
       <c r="Y382" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Z382" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AA382" t="s">
         <v>528</v>
       </c>
-      <c r="Z382" t="s">
+      <c r="AB382" t="s">
         <v>121</v>
       </c>
-      <c r="AA382">
+      <c r="AC382">
         <v>12</v>
       </c>
-      <c r="AD382" t="s">
+      <c r="AF382" t="s">
         <v>179</v>
       </c>
-      <c r="AG382" t="s">
+      <c r="AI382" t="s">
         <v>339</v>
       </c>
-      <c r="AI382" t="s">
+      <c r="AK382" t="s">
         <v>123</v>
       </c>
-      <c r="AJ382" t="s">
+      <c r="AL382" t="s">
         <v>340</v>
       </c>
-      <c r="AK382" t="s">
+      <c r="AM382" t="s">
         <v>124</v>
       </c>
-      <c r="AL382" t="s">
+      <c r="AN382" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="383" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>525</v>
       </c>
@@ -14515,35 +14565,44 @@
       <c r="N383" t="s">
         <v>337</v>
       </c>
+      <c r="V383" t="s">
+        <v>1059</v>
+      </c>
       <c r="Y383" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Z383" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AA383" t="s">
         <v>338</v>
       </c>
-      <c r="Z383" t="s">
+      <c r="AB383" t="s">
         <v>121</v>
       </c>
-      <c r="AA383">
+      <c r="AC383">
         <v>12</v>
       </c>
-      <c r="AD383" t="s">
+      <c r="AF383" t="s">
         <v>179</v>
       </c>
-      <c r="AG383" t="s">
+      <c r="AI383" t="s">
         <v>339</v>
       </c>
-      <c r="AI383" t="s">
+      <c r="AK383" t="s">
         <v>123</v>
       </c>
-      <c r="AJ383" t="s">
+      <c r="AL383" t="s">
         <v>340</v>
       </c>
-      <c r="AK383" t="s">
+      <c r="AM383" t="s">
         <v>124</v>
       </c>
-      <c r="AL383" t="s">
+      <c r="AN383" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="384" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>526</v>
       </c>
@@ -14571,35 +14630,44 @@
       <c r="N384" t="s">
         <v>337</v>
       </c>
+      <c r="V384" t="s">
+        <v>1059</v>
+      </c>
       <c r="Y384" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Z384" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AA384" t="s">
         <v>338</v>
       </c>
-      <c r="Z384" t="s">
+      <c r="AB384" t="s">
         <v>121</v>
       </c>
-      <c r="AA384">
+      <c r="AC384">
         <v>12</v>
       </c>
-      <c r="AD384" t="s">
+      <c r="AF384" t="s">
         <v>179</v>
       </c>
-      <c r="AG384" t="s">
+      <c r="AI384" t="s">
         <v>339</v>
       </c>
-      <c r="AI384" t="s">
+      <c r="AK384" t="s">
         <v>123</v>
       </c>
-      <c r="AJ384" t="s">
+      <c r="AL384" t="s">
         <v>340</v>
       </c>
-      <c r="AK384" t="s">
+      <c r="AM384" t="s">
         <v>124</v>
       </c>
-      <c r="AL384" t="s">
+      <c r="AN384" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="385" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>527</v>
       </c>
@@ -14627,35 +14695,44 @@
       <c r="N385" t="s">
         <v>337</v>
       </c>
+      <c r="V385" t="s">
+        <v>1059</v>
+      </c>
       <c r="Y385" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Z385" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AA385" t="s">
         <v>338</v>
       </c>
-      <c r="Z385" t="s">
+      <c r="AB385" t="s">
         <v>121</v>
       </c>
-      <c r="AA385">
+      <c r="AC385">
         <v>12</v>
       </c>
-      <c r="AD385" t="s">
+      <c r="AF385" t="s">
         <v>179</v>
       </c>
-      <c r="AG385" t="s">
+      <c r="AI385" t="s">
         <v>339</v>
       </c>
-      <c r="AI385" t="s">
+      <c r="AK385" t="s">
         <v>123</v>
       </c>
-      <c r="AJ385" t="s">
+      <c r="AL385" t="s">
         <v>340</v>
       </c>
-      <c r="AK385" t="s">
+      <c r="AM385" t="s">
         <v>124</v>
       </c>
-      <c r="AL385" t="s">
+      <c r="AN385" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="386" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>530</v>
       </c>
@@ -14683,35 +14760,35 @@
       <c r="N386" t="s">
         <v>536</v>
       </c>
-      <c r="Y386" t="s">
+      <c r="AA386" t="s">
         <v>341</v>
       </c>
-      <c r="Z386" t="s">
+      <c r="AB386" t="s">
         <v>121</v>
       </c>
-      <c r="AA386">
+      <c r="AC386">
         <v>12</v>
       </c>
-      <c r="AD386" t="s">
+      <c r="AF386" t="s">
         <v>179</v>
       </c>
-      <c r="AG386" t="s">
+      <c r="AI386" t="s">
         <v>339</v>
       </c>
-      <c r="AI386" t="s">
+      <c r="AK386" t="s">
         <v>123</v>
       </c>
-      <c r="AJ386" t="s">
+      <c r="AL386" t="s">
         <v>342</v>
       </c>
-      <c r="AK386" t="s">
+      <c r="AM386" t="s">
         <v>124</v>
       </c>
-      <c r="AL386" t="s">
+      <c r="AN386" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="387" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>531</v>
       </c>
@@ -14739,35 +14816,35 @@
       <c r="N387" t="s">
         <v>536</v>
       </c>
-      <c r="Y387" t="s">
+      <c r="AA387" t="s">
         <v>544</v>
       </c>
-      <c r="Z387" t="s">
+      <c r="AB387" t="s">
         <v>121</v>
       </c>
-      <c r="AA387">
+      <c r="AC387">
         <v>12</v>
       </c>
-      <c r="AD387" t="s">
+      <c r="AF387" t="s">
         <v>179</v>
       </c>
-      <c r="AG387" t="s">
+      <c r="AI387" t="s">
         <v>339</v>
       </c>
-      <c r="AI387" t="s">
+      <c r="AK387" t="s">
         <v>123</v>
       </c>
-      <c r="AJ387" t="s">
+      <c r="AL387" t="s">
         <v>342</v>
       </c>
-      <c r="AK387" t="s">
+      <c r="AM387" t="s">
         <v>124</v>
       </c>
-      <c r="AL387" t="s">
+      <c r="AN387" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="388" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>532</v>
       </c>
@@ -14795,35 +14872,35 @@
       <c r="N388" t="s">
         <v>536</v>
       </c>
-      <c r="Y388" t="s">
+      <c r="AA388" t="s">
         <v>544</v>
       </c>
-      <c r="Z388" t="s">
+      <c r="AB388" t="s">
         <v>121</v>
       </c>
-      <c r="AA388">
+      <c r="AC388">
         <v>12</v>
       </c>
-      <c r="AD388" t="s">
+      <c r="AF388" t="s">
         <v>179</v>
       </c>
-      <c r="AG388" t="s">
+      <c r="AI388" t="s">
         <v>339</v>
       </c>
-      <c r="AI388" t="s">
+      <c r="AK388" t="s">
         <v>123</v>
       </c>
-      <c r="AJ388" t="s">
+      <c r="AL388" t="s">
         <v>342</v>
       </c>
-      <c r="AK388" t="s">
+      <c r="AM388" t="s">
         <v>124</v>
       </c>
-      <c r="AL388" t="s">
+      <c r="AN388" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="389" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>533</v>
       </c>
@@ -14851,35 +14928,35 @@
       <c r="N389" t="s">
         <v>536</v>
       </c>
-      <c r="Y389" t="s">
+      <c r="AA389" t="s">
         <v>341</v>
       </c>
-      <c r="Z389" t="s">
+      <c r="AB389" t="s">
         <v>121</v>
       </c>
-      <c r="AA389">
+      <c r="AC389">
         <v>12</v>
       </c>
-      <c r="AD389" t="s">
+      <c r="AF389" t="s">
         <v>179</v>
       </c>
-      <c r="AG389" t="s">
+      <c r="AI389" t="s">
         <v>339</v>
       </c>
-      <c r="AI389" t="s">
+      <c r="AK389" t="s">
         <v>123</v>
       </c>
-      <c r="AJ389" t="s">
+      <c r="AL389" t="s">
         <v>342</v>
       </c>
-      <c r="AK389" t="s">
+      <c r="AM389" t="s">
         <v>124</v>
       </c>
-      <c r="AL389" t="s">
+      <c r="AN389" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="390" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>534</v>
       </c>
@@ -14907,35 +14984,35 @@
       <c r="N390" t="s">
         <v>536</v>
       </c>
-      <c r="Y390" t="s">
+      <c r="AA390" t="s">
         <v>341</v>
       </c>
-      <c r="Z390" t="s">
+      <c r="AB390" t="s">
         <v>121</v>
       </c>
-      <c r="AA390">
+      <c r="AC390">
         <v>12</v>
       </c>
-      <c r="AD390" t="s">
+      <c r="AF390" t="s">
         <v>179</v>
       </c>
-      <c r="AG390" t="s">
+      <c r="AI390" t="s">
         <v>339</v>
       </c>
-      <c r="AI390" t="s">
+      <c r="AK390" t="s">
         <v>123</v>
       </c>
-      <c r="AJ390" t="s">
+      <c r="AL390" t="s">
         <v>342</v>
       </c>
-      <c r="AK390" t="s">
+      <c r="AM390" t="s">
         <v>124</v>
       </c>
-      <c r="AL390" t="s">
+      <c r="AN390" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="391" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>535</v>
       </c>
@@ -14963,35 +15040,35 @@
       <c r="N391" t="s">
         <v>536</v>
       </c>
-      <c r="Y391" t="s">
+      <c r="AA391" t="s">
         <v>341</v>
       </c>
-      <c r="Z391" t="s">
+      <c r="AB391" t="s">
         <v>121</v>
       </c>
-      <c r="AA391">
+      <c r="AC391">
         <v>12</v>
       </c>
-      <c r="AD391" t="s">
+      <c r="AF391" t="s">
         <v>179</v>
       </c>
-      <c r="AG391" t="s">
+      <c r="AI391" t="s">
         <v>339</v>
       </c>
-      <c r="AI391" t="s">
+      <c r="AK391" t="s">
         <v>123</v>
       </c>
-      <c r="AJ391" t="s">
+      <c r="AL391" t="s">
         <v>342</v>
       </c>
-      <c r="AK391" t="s">
+      <c r="AM391" t="s">
         <v>124</v>
       </c>
-      <c r="AL391" t="s">
+      <c r="AN391" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="392" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>537</v>
       </c>
@@ -15019,35 +15096,35 @@
       <c r="N392" t="s">
         <v>536</v>
       </c>
-      <c r="Y392" t="s">
+      <c r="AA392" t="s">
         <v>343</v>
       </c>
-      <c r="Z392" t="s">
+      <c r="AB392" t="s">
         <v>121</v>
       </c>
-      <c r="AA392">
+      <c r="AC392">
         <v>12</v>
       </c>
-      <c r="AD392" t="s">
+      <c r="AF392" t="s">
         <v>179</v>
       </c>
-      <c r="AG392" t="s">
+      <c r="AI392" t="s">
         <v>339</v>
       </c>
-      <c r="AI392" t="s">
+      <c r="AK392" t="s">
         <v>322</v>
       </c>
-      <c r="AJ392" t="s">
+      <c r="AL392" t="s">
         <v>344</v>
       </c>
-      <c r="AK392" t="s">
+      <c r="AM392" t="s">
         <v>124</v>
       </c>
-      <c r="AL392" t="s">
+      <c r="AN392" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="393" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>538</v>
       </c>
@@ -15075,35 +15152,35 @@
       <c r="N393" t="s">
         <v>536</v>
       </c>
-      <c r="Y393" t="s">
+      <c r="AA393" t="s">
         <v>543</v>
       </c>
-      <c r="Z393" t="s">
+      <c r="AB393" t="s">
         <v>121</v>
       </c>
-      <c r="AA393">
+      <c r="AC393">
         <v>12</v>
       </c>
-      <c r="AD393" t="s">
+      <c r="AF393" t="s">
         <v>179</v>
       </c>
-      <c r="AG393" t="s">
+      <c r="AI393" t="s">
         <v>339</v>
       </c>
-      <c r="AI393" t="s">
+      <c r="AK393" t="s">
         <v>322</v>
       </c>
-      <c r="AJ393" t="s">
+      <c r="AL393" t="s">
         <v>344</v>
       </c>
-      <c r="AK393" t="s">
+      <c r="AM393" t="s">
         <v>124</v>
       </c>
-      <c r="AL393" t="s">
+      <c r="AN393" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="394" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>539</v>
       </c>
@@ -15131,35 +15208,35 @@
       <c r="N394" t="s">
         <v>536</v>
       </c>
-      <c r="Y394" t="s">
+      <c r="AA394" t="s">
         <v>543</v>
       </c>
-      <c r="Z394" t="s">
+      <c r="AB394" t="s">
         <v>121</v>
       </c>
-      <c r="AA394">
+      <c r="AC394">
         <v>12</v>
       </c>
-      <c r="AD394" t="s">
+      <c r="AF394" t="s">
         <v>179</v>
       </c>
-      <c r="AG394" t="s">
+      <c r="AI394" t="s">
         <v>339</v>
       </c>
-      <c r="AI394" t="s">
+      <c r="AK394" t="s">
         <v>322</v>
       </c>
-      <c r="AJ394" t="s">
+      <c r="AL394" t="s">
         <v>344</v>
       </c>
-      <c r="AK394" t="s">
+      <c r="AM394" t="s">
         <v>124</v>
       </c>
-      <c r="AL394" t="s">
+      <c r="AN394" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="395" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>540</v>
       </c>
@@ -15187,35 +15264,35 @@
       <c r="N395" t="s">
         <v>536</v>
       </c>
-      <c r="Y395" t="s">
+      <c r="AA395" t="s">
         <v>343</v>
       </c>
-      <c r="Z395" t="s">
+      <c r="AB395" t="s">
         <v>121</v>
       </c>
-      <c r="AA395">
+      <c r="AC395">
         <v>12</v>
       </c>
-      <c r="AD395" t="s">
+      <c r="AF395" t="s">
         <v>179</v>
       </c>
-      <c r="AG395" t="s">
+      <c r="AI395" t="s">
         <v>339</v>
       </c>
-      <c r="AI395" t="s">
+      <c r="AK395" t="s">
         <v>322</v>
       </c>
-      <c r="AJ395" t="s">
+      <c r="AL395" t="s">
         <v>344</v>
       </c>
-      <c r="AK395" t="s">
+      <c r="AM395" t="s">
         <v>124</v>
       </c>
-      <c r="AL395" t="s">
+      <c r="AN395" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="396" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>541</v>
       </c>
@@ -15243,35 +15320,35 @@
       <c r="N396" t="s">
         <v>536</v>
       </c>
-      <c r="Y396" t="s">
+      <c r="AA396" t="s">
         <v>343</v>
       </c>
-      <c r="Z396" t="s">
+      <c r="AB396" t="s">
         <v>121</v>
       </c>
-      <c r="AA396">
+      <c r="AC396">
         <v>12</v>
       </c>
-      <c r="AD396" t="s">
+      <c r="AF396" t="s">
         <v>179</v>
       </c>
-      <c r="AG396" t="s">
+      <c r="AI396" t="s">
         <v>339</v>
       </c>
-      <c r="AI396" t="s">
+      <c r="AK396" t="s">
         <v>322</v>
       </c>
-      <c r="AJ396" t="s">
+      <c r="AL396" t="s">
         <v>344</v>
       </c>
-      <c r="AK396" t="s">
+      <c r="AM396" t="s">
         <v>124</v>
       </c>
-      <c r="AL396" t="s">
+      <c r="AN396" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="397" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>542</v>
       </c>
@@ -15299,35 +15376,35 @@
       <c r="N397" t="s">
         <v>536</v>
       </c>
-      <c r="Y397" t="s">
+      <c r="AA397" t="s">
         <v>343</v>
       </c>
-      <c r="Z397" t="s">
+      <c r="AB397" t="s">
         <v>121</v>
       </c>
-      <c r="AA397">
+      <c r="AC397">
         <v>12</v>
       </c>
-      <c r="AD397" t="s">
+      <c r="AF397" t="s">
         <v>179</v>
       </c>
-      <c r="AG397" t="s">
+      <c r="AI397" t="s">
         <v>339</v>
       </c>
-      <c r="AI397" t="s">
+      <c r="AK397" t="s">
         <v>322</v>
       </c>
-      <c r="AJ397" t="s">
+      <c r="AL397" t="s">
         <v>344</v>
       </c>
-      <c r="AK397" t="s">
+      <c r="AM397" t="s">
         <v>124</v>
       </c>
-      <c r="AL397" t="s">
+      <c r="AN397" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="398" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>624</v>
       </c>
@@ -15352,35 +15429,35 @@
       <c r="N398" t="s">
         <v>536</v>
       </c>
-      <c r="Y398" t="s">
+      <c r="AA398" t="s">
         <v>630</v>
       </c>
-      <c r="Z398" t="s">
+      <c r="AB398" t="s">
         <v>121</v>
       </c>
-      <c r="AA398">
+      <c r="AC398">
         <v>12</v>
       </c>
-      <c r="AD398" t="s">
+      <c r="AF398" t="s">
         <v>179</v>
       </c>
-      <c r="AG398" t="s">
+      <c r="AI398" t="s">
         <v>339</v>
       </c>
-      <c r="AI398" t="s">
+      <c r="AK398" t="s">
         <v>322</v>
       </c>
-      <c r="AJ398" t="s">
+      <c r="AL398" t="s">
         <v>123</v>
       </c>
-      <c r="AK398" t="s">
+      <c r="AM398" t="s">
         <v>124</v>
       </c>
-      <c r="AL398" t="s">
+      <c r="AN398" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="399" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>625</v>
       </c>
@@ -15405,35 +15482,35 @@
       <c r="N399" t="s">
         <v>536</v>
       </c>
-      <c r="Y399" t="s">
+      <c r="AA399" t="s">
         <v>631</v>
       </c>
-      <c r="Z399" t="s">
+      <c r="AB399" t="s">
         <v>121</v>
       </c>
-      <c r="AA399">
+      <c r="AC399">
         <v>12</v>
       </c>
-      <c r="AD399" t="s">
+      <c r="AF399" t="s">
         <v>179</v>
       </c>
-      <c r="AG399" t="s">
+      <c r="AI399" t="s">
         <v>339</v>
       </c>
-      <c r="AI399" t="s">
+      <c r="AK399" t="s">
         <v>322</v>
       </c>
-      <c r="AJ399" t="s">
+      <c r="AL399" t="s">
         <v>123</v>
       </c>
-      <c r="AK399" t="s">
+      <c r="AM399" t="s">
         <v>124</v>
       </c>
-      <c r="AL399" t="s">
+      <c r="AN399" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="400" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>626</v>
       </c>
@@ -15458,35 +15535,35 @@
       <c r="N400" t="s">
         <v>536</v>
       </c>
-      <c r="Y400" t="s">
+      <c r="AA400" t="s">
         <v>631</v>
       </c>
-      <c r="Z400" t="s">
+      <c r="AB400" t="s">
         <v>121</v>
       </c>
-      <c r="AA400">
+      <c r="AC400">
         <v>12</v>
       </c>
-      <c r="AD400" t="s">
+      <c r="AF400" t="s">
         <v>179</v>
       </c>
-      <c r="AG400" t="s">
+      <c r="AI400" t="s">
         <v>339</v>
       </c>
-      <c r="AI400" t="s">
+      <c r="AK400" t="s">
         <v>322</v>
       </c>
-      <c r="AJ400" t="s">
+      <c r="AL400" t="s">
         <v>123</v>
       </c>
-      <c r="AK400" t="s">
+      <c r="AM400" t="s">
         <v>124</v>
       </c>
-      <c r="AL400" t="s">
+      <c r="AN400" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="401" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>627</v>
       </c>
@@ -15511,35 +15588,35 @@
       <c r="N401" t="s">
         <v>536</v>
       </c>
-      <c r="Y401" t="s">
+      <c r="AA401" t="s">
         <v>630</v>
       </c>
-      <c r="Z401" t="s">
+      <c r="AB401" t="s">
         <v>121</v>
       </c>
-      <c r="AA401">
+      <c r="AC401">
         <v>12</v>
       </c>
-      <c r="AD401" t="s">
+      <c r="AF401" t="s">
         <v>179</v>
       </c>
-      <c r="AG401" t="s">
+      <c r="AI401" t="s">
         <v>339</v>
       </c>
-      <c r="AI401" t="s">
+      <c r="AK401" t="s">
         <v>322</v>
       </c>
-      <c r="AJ401" t="s">
+      <c r="AL401" t="s">
         <v>123</v>
       </c>
-      <c r="AK401" t="s">
+      <c r="AM401" t="s">
         <v>124</v>
       </c>
-      <c r="AL401" t="s">
+      <c r="AN401" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="402" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>628</v>
       </c>
@@ -15564,35 +15641,35 @@
       <c r="N402" t="s">
         <v>536</v>
       </c>
-      <c r="Y402" t="s">
+      <c r="AA402" t="s">
         <v>630</v>
       </c>
-      <c r="Z402" t="s">
+      <c r="AB402" t="s">
         <v>121</v>
       </c>
-      <c r="AA402">
+      <c r="AC402">
         <v>12</v>
       </c>
-      <c r="AD402" t="s">
+      <c r="AF402" t="s">
         <v>179</v>
       </c>
-      <c r="AG402" t="s">
+      <c r="AI402" t="s">
         <v>339</v>
       </c>
-      <c r="AI402" t="s">
+      <c r="AK402" t="s">
         <v>322</v>
       </c>
-      <c r="AJ402" t="s">
+      <c r="AL402" t="s">
         <v>123</v>
       </c>
-      <c r="AK402" t="s">
+      <c r="AM402" t="s">
         <v>124</v>
       </c>
-      <c r="AL402" t="s">
+      <c r="AN402" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="403" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>629</v>
       </c>
@@ -15617,35 +15694,35 @@
       <c r="N403" t="s">
         <v>536</v>
       </c>
-      <c r="Y403" t="s">
+      <c r="AA403" t="s">
         <v>630</v>
       </c>
-      <c r="Z403" t="s">
+      <c r="AB403" t="s">
         <v>121</v>
       </c>
-      <c r="AA403">
+      <c r="AC403">
         <v>12</v>
       </c>
-      <c r="AD403" t="s">
+      <c r="AF403" t="s">
         <v>179</v>
       </c>
-      <c r="AG403" t="s">
+      <c r="AI403" t="s">
         <v>339</v>
       </c>
-      <c r="AI403" t="s">
+      <c r="AK403" t="s">
         <v>322</v>
       </c>
-      <c r="AJ403" t="s">
+      <c r="AL403" t="s">
         <v>123</v>
       </c>
-      <c r="AK403" t="s">
+      <c r="AM403" t="s">
         <v>124</v>
       </c>
-      <c r="AL403" t="s">
+      <c r="AN403" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="404" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>632</v>
       </c>
@@ -15661,35 +15738,35 @@
       <c r="F404" t="s">
         <v>179</v>
       </c>
-      <c r="Y404" t="s">
+      <c r="AA404" t="s">
         <v>633</v>
       </c>
-      <c r="Z404" t="s">
+      <c r="AB404" t="s">
         <v>121</v>
       </c>
-      <c r="AA404">
+      <c r="AC404">
         <v>12</v>
       </c>
-      <c r="AD404" t="s">
+      <c r="AF404" t="s">
         <v>179</v>
       </c>
-      <c r="AG404" t="s">
+      <c r="AI404" t="s">
         <v>339</v>
       </c>
-      <c r="AI404" t="s">
+      <c r="AK404" t="s">
         <v>123</v>
       </c>
-      <c r="AJ404" t="s">
+      <c r="AL404" t="s">
         <v>634</v>
       </c>
-      <c r="AK404" t="s">
+      <c r="AM404" t="s">
         <v>124</v>
       </c>
-      <c r="AL404" t="s">
+      <c r="AN404" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="405" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>635</v>
       </c>
@@ -15705,35 +15782,35 @@
       <c r="F405" t="s">
         <v>179</v>
       </c>
-      <c r="Y405" t="s">
+      <c r="AA405" t="s">
         <v>633</v>
       </c>
-      <c r="Z405" t="s">
+      <c r="AB405" t="s">
         <v>121</v>
       </c>
-      <c r="AA405">
+      <c r="AC405">
         <v>12</v>
       </c>
-      <c r="AD405" t="s">
+      <c r="AF405" t="s">
         <v>179</v>
       </c>
-      <c r="AG405" t="s">
+      <c r="AI405" t="s">
         <v>339</v>
       </c>
-      <c r="AI405" t="s">
+      <c r="AK405" t="s">
         <v>123</v>
       </c>
-      <c r="AJ405" t="s">
+      <c r="AL405" t="s">
         <v>634</v>
       </c>
-      <c r="AK405" t="s">
+      <c r="AM405" t="s">
         <v>124</v>
       </c>
-      <c r="AL405" t="s">
+      <c r="AN405" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="406" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>590</v>
       </c>
@@ -15755,35 +15832,35 @@
       <c r="M406" t="b">
         <v>1</v>
       </c>
-      <c r="Y406" t="s">
+      <c r="AA406" t="s">
         <v>272</v>
       </c>
-      <c r="Z406" t="s">
+      <c r="AB406" t="s">
         <v>121</v>
       </c>
-      <c r="AA406">
+      <c r="AC406">
         <v>12</v>
       </c>
-      <c r="AD406" t="s">
+      <c r="AF406" t="s">
         <v>179</v>
       </c>
-      <c r="AG406" t="s">
+      <c r="AI406" t="s">
         <v>339</v>
       </c>
-      <c r="AI406" t="s">
+      <c r="AK406" t="s">
         <v>322</v>
       </c>
-      <c r="AJ406" t="s">
+      <c r="AL406" t="s">
         <v>123</v>
       </c>
-      <c r="AK406" t="s">
+      <c r="AM406" t="s">
         <v>125</v>
       </c>
-      <c r="AL406" t="s">
+      <c r="AN406" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="407" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>591</v>
       </c>
@@ -15805,35 +15882,35 @@
       <c r="M407" t="b">
         <v>1</v>
       </c>
-      <c r="Y407" t="s">
+      <c r="AA407" t="s">
         <v>596</v>
       </c>
-      <c r="Z407" t="s">
+      <c r="AB407" t="s">
         <v>121</v>
       </c>
-      <c r="AA407">
+      <c r="AC407">
         <v>12</v>
       </c>
-      <c r="AD407" t="s">
+      <c r="AF407" t="s">
         <v>179</v>
       </c>
-      <c r="AG407" t="s">
+      <c r="AI407" t="s">
         <v>339</v>
       </c>
-      <c r="AI407" t="s">
+      <c r="AK407" t="s">
         <v>322</v>
       </c>
-      <c r="AJ407" t="s">
+      <c r="AL407" t="s">
         <v>123</v>
       </c>
-      <c r="AK407" t="s">
+      <c r="AM407" t="s">
         <v>125</v>
       </c>
-      <c r="AL407" t="s">
+      <c r="AN407" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="408" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>592</v>
       </c>
@@ -15855,35 +15932,35 @@
       <c r="M408" t="b">
         <v>1</v>
       </c>
-      <c r="Y408" t="s">
+      <c r="AA408" t="s">
         <v>596</v>
       </c>
-      <c r="Z408" t="s">
+      <c r="AB408" t="s">
         <v>121</v>
       </c>
-      <c r="AA408">
+      <c r="AC408">
         <v>12</v>
       </c>
-      <c r="AD408" t="s">
+      <c r="AF408" t="s">
         <v>179</v>
       </c>
-      <c r="AG408" t="s">
+      <c r="AI408" t="s">
         <v>339</v>
       </c>
-      <c r="AI408" t="s">
+      <c r="AK408" t="s">
         <v>322</v>
       </c>
-      <c r="AJ408" t="s">
+      <c r="AL408" t="s">
         <v>123</v>
       </c>
-      <c r="AK408" t="s">
+      <c r="AM408" t="s">
         <v>125</v>
       </c>
-      <c r="AL408" t="s">
+      <c r="AN408" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="409" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>593</v>
       </c>
@@ -15905,35 +15982,35 @@
       <c r="M409" t="b">
         <v>1</v>
       </c>
-      <c r="Y409" t="s">
+      <c r="AA409" t="s">
         <v>272</v>
       </c>
-      <c r="Z409" t="s">
+      <c r="AB409" t="s">
         <v>121</v>
       </c>
-      <c r="AA409">
+      <c r="AC409">
         <v>12</v>
       </c>
-      <c r="AD409" t="s">
+      <c r="AF409" t="s">
         <v>179</v>
       </c>
-      <c r="AG409" t="s">
+      <c r="AI409" t="s">
         <v>339</v>
       </c>
-      <c r="AI409" t="s">
+      <c r="AK409" t="s">
         <v>322</v>
       </c>
-      <c r="AJ409" t="s">
+      <c r="AL409" t="s">
         <v>123</v>
       </c>
-      <c r="AK409" t="s">
+      <c r="AM409" t="s">
         <v>125</v>
       </c>
-      <c r="AL409" t="s">
+      <c r="AN409" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="410" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>594</v>
       </c>
@@ -15955,35 +16032,35 @@
       <c r="M410" t="b">
         <v>1</v>
       </c>
-      <c r="Y410" t="s">
+      <c r="AA410" t="s">
         <v>272</v>
       </c>
-      <c r="Z410" t="s">
+      <c r="AB410" t="s">
         <v>121</v>
       </c>
-      <c r="AA410">
+      <c r="AC410">
         <v>12</v>
       </c>
-      <c r="AD410" t="s">
+      <c r="AF410" t="s">
         <v>179</v>
       </c>
-      <c r="AG410" t="s">
+      <c r="AI410" t="s">
         <v>339</v>
       </c>
-      <c r="AI410" t="s">
+      <c r="AK410" t="s">
         <v>322</v>
       </c>
-      <c r="AJ410" t="s">
+      <c r="AL410" t="s">
         <v>123</v>
       </c>
-      <c r="AK410" t="s">
+      <c r="AM410" t="s">
         <v>125</v>
       </c>
-      <c r="AL410" t="s">
+      <c r="AN410" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="411" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>595</v>
       </c>
@@ -16005,35 +16082,35 @@
       <c r="M411" t="b">
         <v>1</v>
       </c>
-      <c r="Y411" t="s">
+      <c r="AA411" t="s">
         <v>272</v>
       </c>
-      <c r="Z411" t="s">
+      <c r="AB411" t="s">
         <v>121</v>
       </c>
-      <c r="AA411">
+      <c r="AC411">
         <v>12</v>
       </c>
-      <c r="AD411" t="s">
+      <c r="AF411" t="s">
         <v>179</v>
       </c>
-      <c r="AG411" t="s">
+      <c r="AI411" t="s">
         <v>339</v>
       </c>
-      <c r="AI411" t="s">
+      <c r="AK411" t="s">
         <v>322</v>
       </c>
-      <c r="AJ411" t="s">
+      <c r="AL411" t="s">
         <v>123</v>
       </c>
-      <c r="AK411" t="s">
+      <c r="AM411" t="s">
         <v>125</v>
       </c>
-      <c r="AL411" t="s">
+      <c r="AN411" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="412" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>599</v>
       </c>
@@ -16052,38 +16129,38 @@
       <c r="F412" t="s">
         <v>347</v>
       </c>
-      <c r="Y412" t="s">
+      <c r="AA412" t="s">
         <v>598</v>
       </c>
-      <c r="Z412" t="s">
+      <c r="AB412" t="s">
         <v>121</v>
       </c>
-      <c r="AA412" t="s">
+      <c r="AC412" t="s">
         <v>349</v>
       </c>
-      <c r="AB412" t="s">
+      <c r="AD412" t="s">
         <v>240</v>
       </c>
-      <c r="AC412" t="s">
+      <c r="AE412" t="s">
         <v>350</v>
       </c>
-      <c r="AD412" t="s">
+      <c r="AF412" t="s">
         <v>135</v>
       </c>
-      <c r="AE412" t="s">
+      <c r="AG412" t="s">
         <v>351</v>
       </c>
-      <c r="AI412" t="s">
+      <c r="AK412" t="s">
         <v>597</v>
       </c>
-      <c r="AJ412" t="s">
+      <c r="AL412" t="s">
         <v>186</v>
       </c>
-      <c r="AK412" t="s">
+      <c r="AM412" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="413" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>600</v>
       </c>
@@ -16102,38 +16179,38 @@
       <c r="F413" t="s">
         <v>347</v>
       </c>
-      <c r="Y413" t="s">
+      <c r="AA413" t="s">
         <v>348</v>
       </c>
-      <c r="Z413" t="s">
+      <c r="AB413" t="s">
         <v>121</v>
       </c>
-      <c r="AA413" t="s">
+      <c r="AC413" t="s">
         <v>349</v>
       </c>
-      <c r="AB413" t="s">
+      <c r="AD413" t="s">
         <v>240</v>
       </c>
-      <c r="AC413" t="s">
+      <c r="AE413" t="s">
         <v>350</v>
       </c>
-      <c r="AD413" t="s">
+      <c r="AF413" t="s">
         <v>135</v>
       </c>
-      <c r="AE413" t="s">
+      <c r="AG413" t="s">
         <v>351</v>
       </c>
-      <c r="AI413" t="s">
+      <c r="AK413" t="s">
         <v>597</v>
       </c>
-      <c r="AJ413" t="s">
+      <c r="AL413" t="s">
         <v>186</v>
       </c>
-      <c r="AK413" t="s">
+      <c r="AM413" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="414" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>601</v>
       </c>
@@ -16152,35 +16229,35 @@
       <c r="F414" t="s">
         <v>347</v>
       </c>
-      <c r="Y414" t="s">
+      <c r="AA414" t="s">
         <v>348</v>
       </c>
-      <c r="Z414" t="s">
+      <c r="AB414" t="s">
         <v>121</v>
       </c>
-      <c r="AA414" t="s">
+      <c r="AC414" t="s">
         <v>354</v>
       </c>
-      <c r="AB414" t="s">
+      <c r="AD414" t="s">
         <v>240</v>
       </c>
-      <c r="AC414" t="s">
+      <c r="AE414" t="s">
         <v>350</v>
       </c>
-      <c r="AD414" t="s">
+      <c r="AF414" t="s">
         <v>135</v>
       </c>
-      <c r="AI414" t="s">
+      <c r="AK414" t="s">
         <v>597</v>
       </c>
-      <c r="AJ414" t="s">
+      <c r="AL414" t="s">
         <v>186</v>
       </c>
-      <c r="AK414" t="s">
+      <c r="AM414" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>602</v>
       </c>
@@ -16199,35 +16276,35 @@
       <c r="F415" t="s">
         <v>347</v>
       </c>
-      <c r="Y415" t="s">
+      <c r="AA415" t="s">
         <v>348</v>
       </c>
-      <c r="Z415" t="s">
+      <c r="AB415" t="s">
         <v>121</v>
       </c>
-      <c r="AA415" t="s">
+      <c r="AC415" t="s">
         <v>354</v>
       </c>
-      <c r="AB415" t="s">
+      <c r="AD415" t="s">
         <v>240</v>
       </c>
-      <c r="AC415" t="s">
+      <c r="AE415" t="s">
         <v>350</v>
       </c>
-      <c r="AD415" t="s">
+      <c r="AF415" t="s">
         <v>135</v>
       </c>
-      <c r="AI415" t="s">
+      <c r="AK415" t="s">
         <v>597</v>
       </c>
-      <c r="AJ415" t="s">
+      <c r="AL415" t="s">
         <v>186</v>
       </c>
-      <c r="AK415" t="s">
+      <c r="AM415" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="416" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>610</v>
       </c>
@@ -16243,38 +16320,38 @@
       <c r="F416" t="s">
         <v>179</v>
       </c>
-      <c r="Y416" t="s">
+      <c r="AA416" t="s">
         <v>605</v>
       </c>
-      <c r="Z416" t="s">
+      <c r="AB416" t="s">
         <v>121</v>
       </c>
-      <c r="AA416">
+      <c r="AC416">
         <v>10</v>
       </c>
-      <c r="AB416" t="s">
+      <c r="AD416" t="s">
         <v>240</v>
       </c>
-      <c r="AC416" t="s">
+      <c r="AE416" t="s">
         <v>350</v>
       </c>
-      <c r="AD416" t="s">
+      <c r="AF416" t="s">
         <v>135</v>
       </c>
-      <c r="AE416" t="s">
+      <c r="AG416" t="s">
         <v>351</v>
       </c>
-      <c r="AI416" t="s">
+      <c r="AK416" t="s">
         <v>597</v>
       </c>
-      <c r="AJ416" t="s">
+      <c r="AL416" t="s">
         <v>186</v>
       </c>
-      <c r="AK416" t="s">
+      <c r="AM416" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="417" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>603</v>
       </c>
@@ -16290,38 +16367,38 @@
       <c r="F417" t="s">
         <v>347</v>
       </c>
-      <c r="Y417" t="s">
+      <c r="AA417" t="s">
         <v>605</v>
       </c>
-      <c r="Z417" t="s">
+      <c r="AB417" t="s">
         <v>121</v>
       </c>
-      <c r="AA417">
+      <c r="AC417">
         <v>10</v>
       </c>
-      <c r="AB417" t="s">
+      <c r="AD417" t="s">
         <v>240</v>
       </c>
-      <c r="AC417" t="s">
+      <c r="AE417" t="s">
         <v>350</v>
       </c>
-      <c r="AD417" t="s">
+      <c r="AF417" t="s">
         <v>135</v>
       </c>
-      <c r="AE417" t="s">
+      <c r="AG417" t="s">
         <v>351</v>
       </c>
-      <c r="AI417" t="s">
+      <c r="AK417" t="s">
         <v>597</v>
       </c>
-      <c r="AJ417" t="s">
+      <c r="AL417" t="s">
         <v>186</v>
       </c>
-      <c r="AK417" t="s">
+      <c r="AM417" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="418" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>608</v>
       </c>
@@ -16337,38 +16414,38 @@
       <c r="F418" t="s">
         <v>347</v>
       </c>
-      <c r="Y418" t="s">
+      <c r="AA418" t="s">
         <v>605</v>
       </c>
-      <c r="Z418" t="s">
+      <c r="AB418" t="s">
         <v>121</v>
       </c>
-      <c r="AA418">
+      <c r="AC418">
         <v>10</v>
       </c>
-      <c r="AB418" t="s">
+      <c r="AD418" t="s">
         <v>240</v>
       </c>
-      <c r="AC418" t="s">
+      <c r="AE418" t="s">
         <v>350</v>
       </c>
-      <c r="AD418" t="s">
+      <c r="AF418" t="s">
         <v>135</v>
       </c>
-      <c r="AE418" t="s">
+      <c r="AG418" t="s">
         <v>351</v>
       </c>
-      <c r="AI418" t="s">
+      <c r="AK418" t="s">
         <v>597</v>
       </c>
-      <c r="AJ418" t="s">
+      <c r="AL418" t="s">
         <v>186</v>
       </c>
-      <c r="AK418" t="s">
+      <c r="AM418" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="419" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>606</v>
       </c>
@@ -16384,41 +16461,41 @@
       <c r="F419" t="s">
         <v>347</v>
       </c>
-      <c r="Y419" t="s">
+      <c r="AA419" t="s">
         <v>605</v>
       </c>
-      <c r="Z419" t="s">
+      <c r="AB419" t="s">
         <v>121</v>
       </c>
-      <c r="AA419">
+      <c r="AC419">
         <v>10</v>
       </c>
-      <c r="AB419" t="s">
+      <c r="AD419" t="s">
         <v>240</v>
       </c>
-      <c r="AC419" t="s">
+      <c r="AE419" t="s">
         <v>350</v>
       </c>
-      <c r="AD419" t="s">
+      <c r="AF419" t="s">
         <v>135</v>
       </c>
-      <c r="AE419" t="s">
+      <c r="AG419" t="s">
         <v>351</v>
       </c>
-      <c r="AI419" t="s">
+      <c r="AK419" t="s">
         <v>597</v>
       </c>
-      <c r="AJ419" t="s">
+      <c r="AL419" t="s">
         <v>186</v>
       </c>
-      <c r="AK419" t="s">
+      <c r="AM419" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="420" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A420"/>
     </row>
-    <row r="421" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>647</v>
       </c>
@@ -16437,35 +16514,35 @@
       <c r="F421" t="s">
         <v>347</v>
       </c>
-      <c r="Y421" t="s">
+      <c r="AA421" t="s">
         <v>348</v>
       </c>
-      <c r="Z421" t="s">
+      <c r="AB421" t="s">
         <v>121</v>
       </c>
-      <c r="AA421" t="s">
+      <c r="AC421" t="s">
         <v>182</v>
       </c>
-      <c r="AB421" t="s">
+      <c r="AD421" t="s">
         <v>240</v>
       </c>
-      <c r="AC421" t="s">
+      <c r="AE421" t="s">
         <v>350</v>
       </c>
-      <c r="AD421" t="s">
+      <c r="AF421" t="s">
         <v>135</v>
       </c>
-      <c r="AI421" t="s">
+      <c r="AK421" t="s">
         <v>357</v>
       </c>
-      <c r="AJ421" t="s">
+      <c r="AL421" t="s">
         <v>186</v>
       </c>
-      <c r="AK421" t="s">
+      <c r="AM421" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="422" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>648</v>
       </c>
@@ -16484,35 +16561,35 @@
       <c r="F422" t="s">
         <v>347</v>
       </c>
-      <c r="Y422" t="s">
+      <c r="AA422" t="s">
         <v>348</v>
       </c>
-      <c r="Z422" t="s">
+      <c r="AB422" t="s">
         <v>121</v>
       </c>
-      <c r="AA422" t="s">
+      <c r="AC422" t="s">
         <v>182</v>
       </c>
-      <c r="AB422" t="s">
+      <c r="AD422" t="s">
         <v>240</v>
       </c>
-      <c r="AC422" t="s">
+      <c r="AE422" t="s">
         <v>350</v>
       </c>
-      <c r="AD422" t="s">
+      <c r="AF422" t="s">
         <v>135</v>
       </c>
-      <c r="AI422" t="s">
+      <c r="AK422" t="s">
         <v>357</v>
       </c>
-      <c r="AJ422" t="s">
+      <c r="AL422" t="s">
         <v>186</v>
       </c>
-      <c r="AK422" t="s">
+      <c r="AM422" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="423" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>649</v>
       </c>
@@ -16528,35 +16605,35 @@
       <c r="F423" t="s">
         <v>119</v>
       </c>
-      <c r="Y423" t="s">
+      <c r="AA423" t="s">
         <v>272</v>
       </c>
-      <c r="Z423" t="s">
+      <c r="AB423" t="s">
         <v>121</v>
       </c>
-      <c r="AA423" t="s">
+      <c r="AC423" t="s">
         <v>182</v>
       </c>
-      <c r="AB423" t="s">
+      <c r="AD423" t="s">
         <v>657</v>
       </c>
-      <c r="AC423" t="s">
+      <c r="AE423" t="s">
         <v>350</v>
       </c>
-      <c r="AD423" t="s">
+      <c r="AF423" t="s">
         <v>135</v>
       </c>
-      <c r="AI423" t="s">
+      <c r="AK423" t="s">
         <v>357</v>
       </c>
-      <c r="AJ423" t="s">
+      <c r="AL423" t="s">
         <v>186</v>
       </c>
-      <c r="AK423" t="s">
+      <c r="AM423" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="424" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>640</v>
       </c>
@@ -16575,35 +16652,35 @@
       <c r="F424" t="s">
         <v>220</v>
       </c>
-      <c r="Y424" t="s">
+      <c r="AA424" t="s">
         <v>348</v>
       </c>
-      <c r="Z424" t="s">
+      <c r="AB424" t="s">
         <v>121</v>
       </c>
-      <c r="AA424" t="s">
+      <c r="AC424" t="s">
         <v>354</v>
       </c>
-      <c r="AB424" t="s">
+      <c r="AD424" t="s">
         <v>240</v>
       </c>
-      <c r="AC424" t="s">
+      <c r="AE424" t="s">
         <v>350</v>
       </c>
-      <c r="AD424" t="s">
+      <c r="AF424" t="s">
         <v>135</v>
       </c>
-      <c r="AI424" t="s">
+      <c r="AK424" t="s">
         <v>642</v>
       </c>
-      <c r="AJ424" t="s">
+      <c r="AL424" t="s">
         <v>186</v>
       </c>
-      <c r="AK424" t="s">
+      <c r="AM424" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="425" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>643</v>
       </c>
@@ -16622,35 +16699,35 @@
       <c r="F425" t="s">
         <v>650</v>
       </c>
-      <c r="Y425" t="s">
+      <c r="AA425" t="s">
         <v>348</v>
       </c>
-      <c r="Z425" t="s">
+      <c r="AB425" t="s">
         <v>121</v>
       </c>
-      <c r="AA425" t="s">
+      <c r="AC425" t="s">
         <v>354</v>
       </c>
-      <c r="AB425" t="s">
+      <c r="AD425" t="s">
         <v>240</v>
       </c>
-      <c r="AC425" t="s">
+      <c r="AE425" t="s">
         <v>350</v>
       </c>
-      <c r="AD425" t="s">
+      <c r="AF425" t="s">
         <v>135</v>
       </c>
-      <c r="AI425" t="s">
+      <c r="AK425" t="s">
         <v>642</v>
       </c>
-      <c r="AJ425" t="s">
+      <c r="AL425" t="s">
         <v>186</v>
       </c>
-      <c r="AK425" t="s">
+      <c r="AM425" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="426" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>644</v>
       </c>
@@ -16669,35 +16746,35 @@
       <c r="F426" t="s">
         <v>220</v>
       </c>
-      <c r="Y426" t="s">
+      <c r="AA426" t="s">
         <v>348</v>
       </c>
-      <c r="Z426" t="s">
+      <c r="AB426" t="s">
         <v>121</v>
       </c>
-      <c r="AA426" t="s">
+      <c r="AC426" t="s">
         <v>354</v>
       </c>
-      <c r="AB426" t="s">
+      <c r="AD426" t="s">
         <v>240</v>
       </c>
-      <c r="AC426" t="s">
+      <c r="AE426" t="s">
         <v>350</v>
       </c>
-      <c r="AD426" t="s">
+      <c r="AF426" t="s">
         <v>135</v>
       </c>
-      <c r="AI426" t="s">
+      <c r="AK426" t="s">
         <v>642</v>
       </c>
-      <c r="AJ426" t="s">
+      <c r="AL426" t="s">
         <v>186</v>
       </c>
-      <c r="AK426" t="s">
+      <c r="AM426" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="427" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>651</v>
       </c>
@@ -16713,32 +16790,32 @@
       <c r="F427" t="s">
         <v>220</v>
       </c>
-      <c r="Y427" t="s">
+      <c r="AA427" t="s">
         <v>348</v>
       </c>
-      <c r="Z427" t="s">
+      <c r="AB427" t="s">
         <v>121</v>
       </c>
-      <c r="AA427">
+      <c r="AC427">
         <v>12</v>
       </c>
-      <c r="AD427" t="s">
+      <c r="AF427" t="s">
         <v>179</v>
       </c>
-      <c r="AG427" t="s">
+      <c r="AI427" t="s">
         <v>339</v>
       </c>
-      <c r="AI427" t="s">
+      <c r="AK427" t="s">
         <v>340</v>
       </c>
-      <c r="AJ427" t="s">
+      <c r="AL427" t="s">
         <v>123</v>
       </c>
-      <c r="AK427" t="s">
+      <c r="AM427" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="428" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>652</v>
       </c>
@@ -16754,32 +16831,32 @@
       <c r="F428" t="s">
         <v>220</v>
       </c>
-      <c r="Y428" t="s">
+      <c r="AA428" t="s">
         <v>348</v>
       </c>
-      <c r="Z428" t="s">
+      <c r="AB428" t="s">
         <v>121</v>
       </c>
-      <c r="AA428">
+      <c r="AC428">
         <v>12</v>
       </c>
-      <c r="AD428" t="s">
+      <c r="AF428" t="s">
         <v>179</v>
       </c>
-      <c r="AG428" t="s">
+      <c r="AI428" t="s">
         <v>339</v>
       </c>
-      <c r="AI428" t="s">
+      <c r="AK428" t="s">
         <v>638</v>
       </c>
-      <c r="AJ428" t="s">
+      <c r="AL428" t="s">
         <v>123</v>
       </c>
-      <c r="AK428" t="s">
+      <c r="AM428" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="429" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>653</v>
       </c>
@@ -16795,40 +16872,40 @@
       <c r="F429" t="s">
         <v>220</v>
       </c>
-      <c r="Y429" t="s">
+      <c r="AA429" t="s">
         <v>348</v>
       </c>
-      <c r="Z429" t="s">
+      <c r="AB429" t="s">
         <v>121</v>
       </c>
-      <c r="AA429">
+      <c r="AC429">
         <v>12</v>
       </c>
-      <c r="AD429" t="s">
+      <c r="AF429" t="s">
         <v>179</v>
       </c>
-      <c r="AG429" t="s">
+      <c r="AI429" t="s">
         <v>339</v>
       </c>
-      <c r="AI429" t="s">
+      <c r="AK429" t="s">
         <v>637</v>
       </c>
-      <c r="AJ429" t="s">
+      <c r="AL429" t="s">
         <v>123</v>
       </c>
-      <c r="AK429" t="s">
+      <c r="AM429" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="430" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A430"/>
     </row>
-    <row r="431" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="432" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>563</v>
       </c>
@@ -16860,7 +16937,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="433" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>562</v>
       </c>
@@ -16892,7 +16969,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="434" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>564</v>
       </c>
@@ -16924,7 +17001,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="435" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>565</v>
       </c>
@@ -16956,7 +17033,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="436" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>566</v>
       </c>
@@ -16988,7 +17065,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="437" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>567</v>
       </c>
@@ -17020,7 +17097,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="438" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>568</v>
       </c>
@@ -17052,7 +17129,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="440" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>561</v>
       </c>
@@ -17084,7 +17161,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="441" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>556</v>
       </c>
@@ -17116,7 +17193,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="442" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>555</v>
       </c>
@@ -17148,7 +17225,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="443" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>553</v>
       </c>
@@ -17180,7 +17257,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="444" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>551</v>
       </c>
@@ -17212,7 +17289,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="445" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>550</v>
       </c>
@@ -17244,15 +17321,15 @@
         <v>560</v>
       </c>
     </row>
-    <row r="446" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A446"/>
     </row>
-    <row r="447" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="448" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A448" s="6" t="s">
         <v>1024</v>
       </c>
@@ -17325,53 +17402,53 @@
       <c r="X448" t="s">
         <v>1053</v>
       </c>
-      <c r="Y448" t="s">
+      <c r="AA448" t="s">
         <v>1038</v>
       </c>
-      <c r="Z448" t="s">
+      <c r="AB448" t="s">
         <v>1039</v>
       </c>
-      <c r="AA448" t="s">
+      <c r="AC448" t="s">
         <v>1040</v>
       </c>
-      <c r="AB448" t="s">
+      <c r="AD448" t="s">
         <v>1041</v>
       </c>
-      <c r="AC448" t="s">
+      <c r="AE448" t="s">
         <v>1042</v>
       </c>
-      <c r="AD448">
+      <c r="AF448">
         <v>8.1</v>
       </c>
-      <c r="AE448" t="s">
+      <c r="AG448" t="s">
         <v>1043</v>
       </c>
-      <c r="AF448" t="b">
+      <c r="AH448" t="b">
         <v>1</v>
       </c>
-      <c r="AG448" s="5" t="s">
+      <c r="AI448" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="AH448" s="5"/>
-      <c r="AI448" t="s">
+      <c r="AJ448" s="5"/>
+      <c r="AK448" t="s">
         <v>1045</v>
       </c>
-      <c r="AJ448" t="s">
+      <c r="AL448" t="s">
         <v>1046</v>
       </c>
-      <c r="AK448" s="5" t="s">
+      <c r="AM448" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="AL448">
+      <c r="AN448">
         <v>2.1</v>
       </c>
-      <c r="AM448" t="s">
+      <c r="AO448" t="s">
         <v>1047</v>
       </c>
-      <c r="AN448" t="s">
+      <c r="AP448" t="s">
         <v>1048</v>
       </c>
-      <c r="AO448" t="s">
+      <c r="AQ448" t="s">
         <v>1049</v>
       </c>
     </row>
